--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-304186.9475901519</v>
+        <v>-306761.4243571504</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10114191.89029606</v>
+        <v>10114191.89029605</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>356.3854774498955</v>
+        <v>356.3854774498954</v>
       </c>
       <c r="C11" t="n">
-        <v>14.6214633780823</v>
+        <v>338.9245275574224</v>
       </c>
       <c r="D11" t="n">
-        <v>328.3346774070978</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>61.66669025205562</v>
       </c>
       <c r="F11" t="n">
-        <v>380.5276815281263</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.5645045585969</v>
+        <v>384.5645045585968</v>
       </c>
       <c r="H11" t="n">
         <v>268.1686946384137</v>
       </c>
       <c r="I11" t="n">
-        <v>14.88711064412186</v>
+        <v>14.88711064412183</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.63757139261674</v>
+        <v>82.63757139261666</v>
       </c>
       <c r="T11" t="n">
-        <v>177.5308349282691</v>
+        <v>177.530834928269</v>
       </c>
       <c r="U11" t="n">
-        <v>224.6460991948151</v>
+        <v>224.646099194815</v>
       </c>
       <c r="V11" t="n">
-        <v>301.4038942565498</v>
+        <v>301.4038942565497</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.8926045038278</v>
       </c>
       <c r="X11" t="n">
         <v>343.3827364648839</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.8895744424685</v>
+        <v>359.8895744424684</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.55110811120687</v>
       </c>
       <c r="I12" t="n">
-        <v>18.65406093391313</v>
+        <v>18.65406093391316</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.4836159683522</v>
+        <v>153.4836159683521</v>
       </c>
       <c r="C13" t="n">
-        <v>140.8984568850427</v>
+        <v>102.1400735037834</v>
       </c>
       <c r="D13" t="n">
         <v>122.2671088046272</v>
       </c>
       <c r="E13" t="n">
-        <v>120.0855984329841</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>119.0726838093461</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.6734711534137</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3713280788746</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.40515278394196</v>
       </c>
       <c r="S13" t="n">
-        <v>163.3514244449451</v>
+        <v>163.351424444945</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>193.1836099784585</v>
       </c>
       <c r="U13" t="n">
-        <v>259.8632572888262</v>
+        <v>259.8632572888261</v>
       </c>
       <c r="V13" t="n">
-        <v>225.7892791102429</v>
+        <v>225.7892791102428</v>
       </c>
       <c r="W13" t="n">
-        <v>260.1746341230059</v>
+        <v>260.1746341230058</v>
       </c>
       <c r="X13" t="n">
-        <v>155.7312452397224</v>
+        <v>199.361291175452</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.2362891385097</v>
+        <v>192.2362891385096</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>356.3854774498955</v>
       </c>
       <c r="C14" t="n">
-        <v>338.9245275574225</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>328.3346774070979</v>
+        <v>45.00921195080053</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.5820058586767</v>
       </c>
       <c r="F14" t="n">
-        <v>380.5276815281264</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>384.5645045585969</v>
       </c>
       <c r="H14" t="n">
-        <v>268.1686946384138</v>
+        <v>268.1686946384137</v>
       </c>
       <c r="I14" t="n">
         <v>14.88711064412192</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.63757139261675</v>
       </c>
       <c r="T14" t="n">
-        <v>177.5308349282692</v>
+        <v>177.5308349282691</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.6460991948151</v>
       </c>
       <c r="V14" t="n">
         <v>301.4038942565498</v>
       </c>
       <c r="W14" t="n">
-        <v>322.892604503828</v>
+        <v>322.8926045038279</v>
       </c>
       <c r="X14" t="n">
-        <v>3.470738369146902</v>
+        <v>343.3827364648839</v>
       </c>
       <c r="Y14" t="n">
         <v>359.8895744424685</v>
@@ -1704,7 +1704,7 @@
         <v>89.55110811120687</v>
       </c>
       <c r="I15" t="n">
-        <v>18.65406093391313</v>
+        <v>18.65406093391316</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>153.4836159683522</v>
       </c>
       <c r="C16" t="n">
-        <v>140.8984568850428</v>
+        <v>100.4258031496716</v>
       </c>
       <c r="D16" t="n">
-        <v>122.2671088046273</v>
+        <v>122.2671088046272</v>
       </c>
       <c r="E16" t="n">
-        <v>120.0855984329841</v>
+        <v>120.085598432984</v>
       </c>
       <c r="F16" t="n">
-        <v>4.507442630698681</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>118.3713280788747</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.40515278394209</v>
+        <v>62.40515278394204</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>163.3514244449451</v>
       </c>
       <c r="T16" t="n">
-        <v>193.1836099784587</v>
+        <v>193.1836099784586</v>
       </c>
       <c r="U16" t="n">
         <v>259.8632572888262</v>
@@ -1828,7 +1828,7 @@
         <v>260.1746341230059</v>
       </c>
       <c r="X16" t="n">
-        <v>199.3612911754521</v>
+        <v>199.361291175452</v>
       </c>
       <c r="Y16" t="n">
         <v>192.2362891385097</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>309.5900343935377</v>
+        <v>309.5900343935376</v>
       </c>
       <c r="C17" t="n">
-        <v>292.1290845010647</v>
+        <v>292.1290845010646</v>
       </c>
       <c r="D17" t="n">
-        <v>281.5392343507401</v>
+        <v>281.53923435074</v>
       </c>
       <c r="E17" t="n">
-        <v>308.7865628023189</v>
+        <v>308.7865628023188</v>
       </c>
       <c r="F17" t="n">
-        <v>333.7322384717686</v>
+        <v>0.9778773630541004</v>
       </c>
       <c r="G17" t="n">
-        <v>337.7690615022391</v>
+        <v>337.769061502239</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>221.3732515820559</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.84212833625898</v>
+        <v>35.84212833625888</v>
       </c>
       <c r="T17" t="n">
-        <v>130.7353918719114</v>
+        <v>130.7353918719113</v>
       </c>
       <c r="U17" t="n">
-        <v>177.8506561384574</v>
+        <v>177.8506561384573</v>
       </c>
       <c r="V17" t="n">
-        <v>254.6084512001921</v>
+        <v>254.608451200192</v>
       </c>
       <c r="W17" t="n">
-        <v>276.0971614474702</v>
+        <v>276.0971614474701</v>
       </c>
       <c r="X17" t="n">
-        <v>185.2061838818688</v>
+        <v>296.5872934085261</v>
       </c>
       <c r="Y17" t="n">
-        <v>313.0941313861107</v>
+        <v>313.0941313861106</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.55110811120687</v>
       </c>
       <c r="I18" t="n">
-        <v>18.65406093391313</v>
+        <v>18.65406093391316</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.6881729119944</v>
+        <v>106.6881729119943</v>
       </c>
       <c r="C19" t="n">
-        <v>94.10301382868498</v>
+        <v>94.10301382868487</v>
       </c>
       <c r="D19" t="n">
-        <v>75.4716657482695</v>
+        <v>75.47166574826939</v>
       </c>
       <c r="E19" t="n">
-        <v>73.29015537662632</v>
+        <v>73.2901553766262</v>
       </c>
       <c r="F19" t="n">
-        <v>72.27724075298839</v>
+        <v>72.27724075298828</v>
       </c>
       <c r="G19" t="n">
-        <v>92.878028097056</v>
+        <v>92.87802809705589</v>
       </c>
       <c r="H19" t="n">
-        <v>126.2360025235878</v>
+        <v>71.57588502251677</v>
       </c>
       <c r="I19" t="n">
-        <v>23.08913744141227</v>
+        <v>23.08913744141217</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.60970972758429</v>
+        <v>15.60970972758419</v>
       </c>
       <c r="S19" t="n">
-        <v>116.5559813885874</v>
+        <v>171.2160988896596</v>
       </c>
       <c r="T19" t="n">
-        <v>146.3881669221009</v>
+        <v>146.3881669221008</v>
       </c>
       <c r="U19" t="n">
-        <v>213.0678142324684</v>
+        <v>213.0678142324683</v>
       </c>
       <c r="V19" t="n">
-        <v>178.9938360538852</v>
+        <v>178.993836053885</v>
       </c>
       <c r="W19" t="n">
-        <v>213.3791910666482</v>
+        <v>213.379191066648</v>
       </c>
       <c r="X19" t="n">
-        <v>152.5658481190943</v>
+        <v>152.5658481190942</v>
       </c>
       <c r="Y19" t="n">
-        <v>145.4408460821519</v>
+        <v>145.4408460821518</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>309.5900343935377</v>
+        <v>309.5900343935376</v>
       </c>
       <c r="C20" t="n">
-        <v>292.1290845010647</v>
+        <v>292.1290845010646</v>
       </c>
       <c r="D20" t="n">
-        <v>281.5392343507401</v>
+        <v>281.53923435074</v>
       </c>
       <c r="E20" t="n">
-        <v>11.8743300298635</v>
+        <v>308.7865628023188</v>
       </c>
       <c r="F20" t="n">
-        <v>333.7322384717686</v>
+        <v>222.3511289451115</v>
       </c>
       <c r="G20" t="n">
-        <v>337.7690615022391</v>
+        <v>337.769061502239</v>
       </c>
       <c r="H20" t="n">
-        <v>221.373251582056</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.84212833625888</v>
       </c>
       <c r="T20" t="n">
-        <v>130.7353918719114</v>
+        <v>130.7353918719113</v>
       </c>
       <c r="U20" t="n">
-        <v>177.8506561384574</v>
+        <v>177.8506561384573</v>
       </c>
       <c r="V20" t="n">
-        <v>254.6084512001921</v>
+        <v>254.608451200192</v>
       </c>
       <c r="W20" t="n">
-        <v>276.0971614474702</v>
+        <v>276.0971614474701</v>
       </c>
       <c r="X20" t="n">
-        <v>296.5872934085262</v>
+        <v>296.5872934085261</v>
       </c>
       <c r="Y20" t="n">
-        <v>313.0941313861107</v>
+        <v>313.0941313861106</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.55110811120687</v>
       </c>
       <c r="I21" t="n">
-        <v>18.65406093391313</v>
+        <v>18.65406093391316</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>106.6881729119944</v>
+        <v>106.6881729119943</v>
       </c>
       <c r="C22" t="n">
-        <v>148.7631313297559</v>
+        <v>94.10301382868487</v>
       </c>
       <c r="D22" t="n">
-        <v>75.4716657482695</v>
+        <v>75.47166574826939</v>
       </c>
       <c r="E22" t="n">
-        <v>73.29015537662632</v>
+        <v>73.2901553766262</v>
       </c>
       <c r="F22" t="n">
-        <v>72.27724075298839</v>
+        <v>72.27724075298828</v>
       </c>
       <c r="G22" t="n">
-        <v>92.878028097056</v>
+        <v>92.87802809705589</v>
       </c>
       <c r="H22" t="n">
-        <v>71.57588502251689</v>
+        <v>71.57588502251677</v>
       </c>
       <c r="I22" t="n">
-        <v>23.08913744141227</v>
+        <v>23.08913744141217</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.60970972758429</v>
+        <v>15.60970972758419</v>
       </c>
       <c r="S22" t="n">
-        <v>116.5559813885874</v>
+        <v>116.5559813885873</v>
       </c>
       <c r="T22" t="n">
-        <v>146.3881669221009</v>
+        <v>146.3881669221008</v>
       </c>
       <c r="U22" t="n">
-        <v>213.0678142324684</v>
+        <v>213.0678142324683</v>
       </c>
       <c r="V22" t="n">
-        <v>178.9938360538852</v>
+        <v>178.993836053885</v>
       </c>
       <c r="W22" t="n">
-        <v>213.3791910666482</v>
+        <v>268.0393085677206</v>
       </c>
       <c r="X22" t="n">
-        <v>152.5658481190943</v>
+        <v>152.5658481190942</v>
       </c>
       <c r="Y22" t="n">
-        <v>145.4408460821519</v>
+        <v>145.4408460821518</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>309.5900343935377</v>
+        <v>309.5900343935376</v>
       </c>
       <c r="C23" t="n">
-        <v>292.1290845010647</v>
+        <v>292.1290845010646</v>
       </c>
       <c r="D23" t="n">
-        <v>281.5392343507401</v>
+        <v>281.53923435074</v>
       </c>
       <c r="E23" t="n">
-        <v>308.7865628023189</v>
+        <v>308.7865628023188</v>
       </c>
       <c r="F23" t="n">
-        <v>333.7322384717686</v>
+        <v>333.7322384717685</v>
       </c>
       <c r="G23" t="n">
-        <v>337.7690615022391</v>
+        <v>337.769061502239</v>
       </c>
       <c r="H23" t="n">
-        <v>221.373251582056</v>
+        <v>221.3732515820559</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.84212833625898</v>
+        <v>35.84212833625888</v>
       </c>
       <c r="T23" t="n">
-        <v>130.7353918719114</v>
+        <v>130.7353918719113</v>
       </c>
       <c r="U23" t="n">
-        <v>177.8506561384574</v>
+        <v>177.8506561384573</v>
       </c>
       <c r="V23" t="n">
-        <v>254.6084512001921</v>
+        <v>254.608451200192</v>
       </c>
       <c r="W23" t="n">
-        <v>276.0971614474702</v>
+        <v>276.0971614474701</v>
       </c>
       <c r="X23" t="n">
-        <v>296.5872934085262</v>
+        <v>296.5872934085261</v>
       </c>
       <c r="Y23" t="n">
-        <v>313.0941313861107</v>
+        <v>313.0941313861106</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.55110811120687</v>
       </c>
       <c r="I24" t="n">
-        <v>18.65406093391313</v>
+        <v>18.65406093391316</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106.6881729119944</v>
+        <v>106.6881729119943</v>
       </c>
       <c r="C25" t="n">
-        <v>94.10301382868498</v>
+        <v>94.10301382868487</v>
       </c>
       <c r="D25" t="n">
-        <v>75.4716657482695</v>
+        <v>75.47166574826939</v>
       </c>
       <c r="E25" t="n">
-        <v>73.29015537662632</v>
+        <v>73.2901553766262</v>
       </c>
       <c r="F25" t="n">
-        <v>72.27724075298839</v>
+        <v>72.27724075298828</v>
       </c>
       <c r="G25" t="n">
-        <v>92.878028097056</v>
+        <v>92.87802809705589</v>
       </c>
       <c r="H25" t="n">
-        <v>71.57588502251689</v>
+        <v>71.57588502251677</v>
       </c>
       <c r="I25" t="n">
-        <v>23.08913744141227</v>
+        <v>23.08913744141217</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.60970972758429</v>
+        <v>15.60970972758419</v>
       </c>
       <c r="S25" t="n">
-        <v>116.5559813885874</v>
+        <v>116.5559813885873</v>
       </c>
       <c r="T25" t="n">
-        <v>146.3881669221009</v>
+        <v>146.3881669221008</v>
       </c>
       <c r="U25" t="n">
-        <v>213.0678142324684</v>
+        <v>213.0678142324683</v>
       </c>
       <c r="V25" t="n">
-        <v>178.9938360538852</v>
+        <v>178.993836053885</v>
       </c>
       <c r="W25" t="n">
-        <v>268.0393085677193</v>
+        <v>213.379191066648</v>
       </c>
       <c r="X25" t="n">
-        <v>152.5658481190943</v>
+        <v>207.2259656201666</v>
       </c>
       <c r="Y25" t="n">
-        <v>145.4408460821519</v>
+        <v>145.4408460821518</v>
       </c>
     </row>
     <row r="26">
@@ -2606,7 +2606,7 @@
         <v>62.19049254984409</v>
       </c>
       <c r="T26" t="n">
-        <v>157.0837560854965</v>
+        <v>157.0837560854964</v>
       </c>
       <c r="U26" t="n">
         <v>204.1990203520425</v>
@@ -2719,19 +2719,19 @@
         <v>101.8200299618546</v>
       </c>
       <c r="E28" t="n">
-        <v>99.63851959021142</v>
+        <v>99.6385195902114</v>
       </c>
       <c r="F28" t="n">
-        <v>98.62560496657349</v>
+        <v>98.62560496657348</v>
       </c>
       <c r="G28" t="n">
         <v>119.2263923106411</v>
       </c>
       <c r="H28" t="n">
-        <v>97.92424923610199</v>
+        <v>97.92424923610197</v>
       </c>
       <c r="I28" t="n">
-        <v>49.43750165499737</v>
+        <v>49.43750165499736</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95807394116939</v>
+        <v>41.95807394116936</v>
       </c>
       <c r="S28" t="n">
         <v>142.9043456021724</v>
@@ -2798,13 +2798,13 @@
         <v>307.8875985643252</v>
       </c>
       <c r="E29" t="n">
-        <v>335.1349270159041</v>
+        <v>335.134927015904</v>
       </c>
       <c r="F29" t="n">
         <v>360.0806026853537</v>
       </c>
       <c r="G29" t="n">
-        <v>364.1174257158243</v>
+        <v>364.1174257158242</v>
       </c>
       <c r="H29" t="n">
         <v>247.7216157956411</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.19049254984409</v>
+        <v>62.19049254984408</v>
       </c>
       <c r="T29" t="n">
-        <v>157.0837560854965</v>
+        <v>157.0837560854964</v>
       </c>
       <c r="U29" t="n">
         <v>204.1990203520425</v>
       </c>
       <c r="V29" t="n">
-        <v>280.9568154137772</v>
+        <v>280.9568154137771</v>
       </c>
       <c r="W29" t="n">
-        <v>302.4455256610553</v>
+        <v>302.4455256610552</v>
       </c>
       <c r="X29" t="n">
         <v>322.9356576221113</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.4424955996959</v>
+        <v>339.4424955996958</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>89.55110811120687</v>
       </c>
       <c r="I30" t="n">
-        <v>18.65406093391313</v>
+        <v>18.65406093391316</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>101.8200299618546</v>
       </c>
       <c r="E31" t="n">
-        <v>99.63851959021142</v>
+        <v>99.63851959021139</v>
       </c>
       <c r="F31" t="n">
-        <v>98.62560496657349</v>
+        <v>98.62560496657346</v>
       </c>
       <c r="G31" t="n">
         <v>119.2263923106411</v>
       </c>
       <c r="H31" t="n">
-        <v>97.92424923610199</v>
+        <v>97.92424923610196</v>
       </c>
       <c r="I31" t="n">
-        <v>49.43750165499633</v>
+        <v>49.43750165499736</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95807394116939</v>
+        <v>41.95807394116937</v>
       </c>
       <c r="S31" t="n">
         <v>142.9043456021724</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.9383986071228</v>
+        <v>335.9383986071227</v>
       </c>
       <c r="C32" t="n">
-        <v>318.4774487146498</v>
+        <v>318.4774487146497</v>
       </c>
       <c r="D32" t="n">
-        <v>307.8875985643252</v>
+        <v>307.8875985643251</v>
       </c>
       <c r="E32" t="n">
-        <v>335.134927015904</v>
+        <v>335.1349270159039</v>
       </c>
       <c r="F32" t="n">
-        <v>360.0806026853537</v>
+        <v>360.0806026853536</v>
       </c>
       <c r="G32" t="n">
-        <v>364.1174257158242</v>
+        <v>364.1174257158241</v>
       </c>
       <c r="H32" t="n">
-        <v>247.7216157956411</v>
+        <v>247.721615795641</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.19049254984409</v>
+        <v>62.19049254984405</v>
       </c>
       <c r="T32" t="n">
-        <v>157.0837560854965</v>
+        <v>157.0837560854964</v>
       </c>
       <c r="U32" t="n">
-        <v>204.1990203520425</v>
+        <v>204.1990203520424</v>
       </c>
       <c r="V32" t="n">
         <v>280.9568154137771</v>
@@ -3092,10 +3092,10 @@
         <v>302.4455256610552</v>
       </c>
       <c r="X32" t="n">
-        <v>322.9356576221113</v>
+        <v>322.9356576221112</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.4424955996958</v>
+        <v>339.4424955996957</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.55110811120687</v>
       </c>
       <c r="I33" t="n">
-        <v>18.65406093391313</v>
+        <v>18.65406093391316</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>133.0365371255795</v>
       </c>
       <c r="C34" t="n">
-        <v>120.4513780422701</v>
+        <v>120.45137804227</v>
       </c>
       <c r="D34" t="n">
-        <v>101.8200299618546</v>
+        <v>101.8200299618545</v>
       </c>
       <c r="E34" t="n">
-        <v>99.63851959021142</v>
+        <v>99.63851959021135</v>
       </c>
       <c r="F34" t="n">
-        <v>98.62560496657349</v>
+        <v>98.62560496657342</v>
       </c>
       <c r="G34" t="n">
-        <v>119.2263923106411</v>
+        <v>119.226392310641</v>
       </c>
       <c r="H34" t="n">
-        <v>97.92424923610199</v>
+        <v>97.92424923610191</v>
       </c>
       <c r="I34" t="n">
-        <v>49.43750165499737</v>
+        <v>49.43750165499731</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95807394116939</v>
+        <v>41.95807394116932</v>
       </c>
       <c r="S34" t="n">
         <v>142.9043456021724</v>
       </c>
       <c r="T34" t="n">
-        <v>172.736531135686</v>
+        <v>172.7365311356859</v>
       </c>
       <c r="U34" t="n">
-        <v>239.4161784460535</v>
+        <v>239.4161784460534</v>
       </c>
       <c r="V34" t="n">
         <v>205.3422002674702</v>
@@ -3250,7 +3250,7 @@
         <v>239.7275552802332</v>
       </c>
       <c r="X34" t="n">
-        <v>178.9142123326794</v>
+        <v>178.9142123326793</v>
       </c>
       <c r="Y34" t="n">
         <v>171.789210295737</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.19049254984409</v>
+        <v>62.19049254984407</v>
       </c>
       <c r="T35" t="n">
         <v>157.0837560854964</v>
@@ -3363,7 +3363,7 @@
         <v>89.55110811120687</v>
       </c>
       <c r="I36" t="n">
-        <v>18.65406093391313</v>
+        <v>18.65406093391316</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>133.0365371255795</v>
       </c>
       <c r="C37" t="n">
-        <v>120.4513780422701</v>
+        <v>120.45137804227</v>
       </c>
       <c r="D37" t="n">
         <v>101.8200299618546</v>
       </c>
       <c r="E37" t="n">
-        <v>99.6385195902114</v>
+        <v>99.63851959021137</v>
       </c>
       <c r="F37" t="n">
-        <v>98.62560496657348</v>
+        <v>98.62560496657345</v>
       </c>
       <c r="G37" t="n">
         <v>119.2263923106411</v>
       </c>
       <c r="H37" t="n">
-        <v>97.92424923610197</v>
+        <v>97.92424923610194</v>
       </c>
       <c r="I37" t="n">
-        <v>49.43750165499736</v>
+        <v>49.43750165499735</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>142.9043456021724</v>
       </c>
       <c r="T37" t="n">
-        <v>172.736531135686</v>
+        <v>172.7365311356859</v>
       </c>
       <c r="U37" t="n">
         <v>239.4161784460535</v>
@@ -3509,13 +3509,13 @@
         <v>307.8875985643252</v>
       </c>
       <c r="E38" t="n">
-        <v>335.1349270159041</v>
+        <v>335.134927015904</v>
       </c>
       <c r="F38" t="n">
         <v>360.0806026853537</v>
       </c>
       <c r="G38" t="n">
-        <v>364.1174257158243</v>
+        <v>364.1174257158242</v>
       </c>
       <c r="H38" t="n">
         <v>247.7216157956411</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.19049254984409</v>
+        <v>62.19049254984408</v>
       </c>
       <c r="T38" t="n">
-        <v>157.0837560854965</v>
+        <v>157.0837560854964</v>
       </c>
       <c r="U38" t="n">
         <v>204.1990203520425</v>
@@ -3563,7 +3563,7 @@
         <v>280.9568154137771</v>
       </c>
       <c r="W38" t="n">
-        <v>302.4455256610553</v>
+        <v>302.4455256610552</v>
       </c>
       <c r="X38" t="n">
         <v>322.9356576221113</v>
@@ -3600,7 +3600,7 @@
         <v>89.55110811120687</v>
       </c>
       <c r="I39" t="n">
-        <v>18.65406093391313</v>
+        <v>18.65406093391316</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3667,19 +3667,19 @@
         <v>101.8200299618546</v>
       </c>
       <c r="E40" t="n">
-        <v>99.63851959021142</v>
+        <v>99.63851959021139</v>
       </c>
       <c r="F40" t="n">
-        <v>98.62560496657349</v>
+        <v>98.62560496657346</v>
       </c>
       <c r="G40" t="n">
         <v>119.2263923106411</v>
       </c>
       <c r="H40" t="n">
-        <v>97.92424923610199</v>
+        <v>97.92424923610196</v>
       </c>
       <c r="I40" t="n">
-        <v>49.43750165499737</v>
+        <v>49.43750165499736</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95807394116939</v>
+        <v>41.95807394116937</v>
       </c>
       <c r="S40" t="n">
         <v>142.9043456021724</v>
@@ -3746,13 +3746,13 @@
         <v>307.8875985643252</v>
       </c>
       <c r="E41" t="n">
-        <v>335.1349270159041</v>
+        <v>335.134927015904</v>
       </c>
       <c r="F41" t="n">
         <v>360.0806026853537</v>
       </c>
       <c r="G41" t="n">
-        <v>364.1174257158243</v>
+        <v>364.1174257158242</v>
       </c>
       <c r="H41" t="n">
         <v>247.7216157956411</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.19049254984407</v>
+        <v>62.19049254984408</v>
       </c>
       <c r="T41" t="n">
-        <v>157.0837560854965</v>
+        <v>157.0837560854964</v>
       </c>
       <c r="U41" t="n">
         <v>204.1990203520425</v>
@@ -3800,7 +3800,7 @@
         <v>280.9568154137771</v>
       </c>
       <c r="W41" t="n">
-        <v>302.4455256610553</v>
+        <v>302.4455256610552</v>
       </c>
       <c r="X41" t="n">
         <v>322.9356576221113</v>
@@ -3837,7 +3837,7 @@
         <v>89.55110811120687</v>
       </c>
       <c r="I42" t="n">
-        <v>18.65406093391312</v>
+        <v>18.65406093391316</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3904,16 +3904,16 @@
         <v>101.8200299618546</v>
       </c>
       <c r="E43" t="n">
-        <v>99.63851959021142</v>
+        <v>99.63851959021139</v>
       </c>
       <c r="F43" t="n">
-        <v>98.62560496657349</v>
+        <v>98.62560496657346</v>
       </c>
       <c r="G43" t="n">
         <v>119.2263923106411</v>
       </c>
       <c r="H43" t="n">
-        <v>97.92424923610199</v>
+        <v>97.92424923610196</v>
       </c>
       <c r="I43" t="n">
         <v>49.43750165499736</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.19049254984401</v>
+        <v>62.190492549844</v>
       </c>
       <c r="T44" t="n">
         <v>157.0837560854964</v>
@@ -4074,7 +4074,7 @@
         <v>89.55110811120687</v>
       </c>
       <c r="I45" t="n">
-        <v>18.65406093391312</v>
+        <v>18.65406093391316</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4141,19 +4141,19 @@
         <v>101.8200299618545</v>
       </c>
       <c r="E46" t="n">
-        <v>99.63851959021136</v>
+        <v>99.63851959021132</v>
       </c>
       <c r="F46" t="n">
-        <v>98.62560496657343</v>
+        <v>98.62560496657339</v>
       </c>
       <c r="G46" t="n">
         <v>119.226392310641</v>
       </c>
       <c r="H46" t="n">
-        <v>97.92424923610193</v>
+        <v>97.92424923610189</v>
       </c>
       <c r="I46" t="n">
-        <v>49.4375016549973</v>
+        <v>49.43750165499728</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1471.883792946845</v>
+        <v>1145.729646983381</v>
       </c>
       <c r="C11" t="n">
-        <v>1457.114638019489</v>
+        <v>803.3816393496209</v>
       </c>
       <c r="D11" t="n">
-        <v>1125.46344871939</v>
+        <v>803.3816393496209</v>
       </c>
       <c r="E11" t="n">
-        <v>1125.46344871939</v>
+        <v>741.0920532364341</v>
       </c>
       <c r="F11" t="n">
-        <v>741.0920532364343</v>
+        <v>741.0920532364341</v>
       </c>
       <c r="G11" t="n">
         <v>352.643058732801</v>
       </c>
       <c r="H11" t="n">
-        <v>81.76558940107006</v>
+        <v>81.76558940107003</v>
       </c>
       <c r="I11" t="n">
-        <v>66.72810390195707</v>
+        <v>66.72810390195704</v>
       </c>
       <c r="J11" t="n">
-        <v>256.3514344205305</v>
+        <v>256.3514344205296</v>
       </c>
       <c r="K11" t="n">
-        <v>591.2861703363055</v>
+        <v>591.2861703363037</v>
       </c>
       <c r="L11" t="n">
-        <v>1043.704089053052</v>
+        <v>1043.70408905305</v>
       </c>
       <c r="M11" t="n">
-        <v>1578.775632670002</v>
+        <v>1578.77563267</v>
       </c>
       <c r="N11" t="n">
-        <v>2127.119001641584</v>
+        <v>2127.119001641582</v>
       </c>
       <c r="O11" t="n">
-        <v>2631.568834526709</v>
+        <v>2631.568834526706</v>
       </c>
       <c r="P11" t="n">
-        <v>3027.604095175849</v>
+        <v>3027.604095175846</v>
       </c>
       <c r="Q11" t="n">
-        <v>3276.837336033563</v>
+        <v>3276.837336033561</v>
       </c>
       <c r="R11" t="n">
-        <v>3336.405195097854</v>
+        <v>3336.405195097852</v>
       </c>
       <c r="S11" t="n">
-        <v>3252.932900761877</v>
+        <v>3252.932900761875</v>
       </c>
       <c r="T11" t="n">
-        <v>3073.608825076757</v>
+        <v>3073.608825076755</v>
       </c>
       <c r="U11" t="n">
-        <v>2846.693573364822</v>
+        <v>2846.693573364821</v>
       </c>
       <c r="V11" t="n">
-        <v>2542.245195327903</v>
+        <v>2542.245195327901</v>
       </c>
       <c r="W11" t="n">
-        <v>2542.245195327903</v>
+        <v>2216.091049364439</v>
       </c>
       <c r="X11" t="n">
-        <v>2195.393946373475</v>
+        <v>1869.239800410011</v>
       </c>
       <c r="Y11" t="n">
-        <v>1831.869123704315</v>
+        <v>1505.714977740851</v>
       </c>
     </row>
     <row r="12">
@@ -5115,22 +5115,22 @@
         <v>85.57058969378852</v>
       </c>
       <c r="I12" t="n">
-        <v>66.72810390195707</v>
+        <v>66.72810390195704</v>
       </c>
       <c r="J12" t="n">
-        <v>160.8486135519636</v>
+        <v>160.8486135519635</v>
       </c>
       <c r="K12" t="n">
-        <v>399.8703805629607</v>
+        <v>399.8703805629606</v>
       </c>
       <c r="L12" t="n">
-        <v>759.729414061895</v>
+        <v>767.5871845825366</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.194448443856</v>
+        <v>1216.052218964497</v>
       </c>
       <c r="N12" t="n">
-        <v>1682.937662752297</v>
+        <v>1690.795433272938</v>
       </c>
       <c r="O12" t="n">
         <v>2095.015160030543</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>715.2102443922743</v>
+        <v>412.9690234850733</v>
       </c>
       <c r="C13" t="n">
-        <v>572.888570771019</v>
+        <v>309.7972320671103</v>
       </c>
       <c r="D13" t="n">
-        <v>449.3864406653348</v>
+        <v>186.2951019614263</v>
       </c>
       <c r="E13" t="n">
-        <v>328.0878563895934</v>
+        <v>186.2951019614263</v>
       </c>
       <c r="F13" t="n">
-        <v>207.8124181983346</v>
+        <v>186.2951019614263</v>
       </c>
       <c r="G13" t="n">
-        <v>66.72810390195707</v>
+        <v>186.2951019614263</v>
       </c>
       <c r="H13" t="n">
-        <v>66.72810390195707</v>
+        <v>66.72810390195704</v>
       </c>
       <c r="I13" t="n">
-        <v>66.72810390195707</v>
+        <v>66.72810390195704</v>
       </c>
       <c r="J13" t="n">
         <v>138.213691552153</v>
@@ -5203,7 +5203,7 @@
         <v>368.7427171136957</v>
       </c>
       <c r="L13" t="n">
-        <v>711.9721502198746</v>
+        <v>711.9721502198747</v>
       </c>
       <c r="M13" t="n">
         <v>1082.830617586233</v>
@@ -5218,31 +5218,31 @@
         <v>2036.064249511771</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.088775012076</v>
+        <v>2140.088775012077</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.088775012076</v>
+        <v>2077.053267149509</v>
       </c>
       <c r="S13" t="n">
-        <v>1975.087336178799</v>
+        <v>1912.051828316231</v>
       </c>
       <c r="T13" t="n">
-        <v>1975.087336178799</v>
+        <v>1716.916868742031</v>
       </c>
       <c r="U13" t="n">
-        <v>1712.599197503217</v>
+        <v>1454.428730066449</v>
       </c>
       <c r="V13" t="n">
-        <v>1484.529218603981</v>
+        <v>1226.358751167214</v>
       </c>
       <c r="W13" t="n">
-        <v>1221.726557873672</v>
+        <v>963.5560904369053</v>
       </c>
       <c r="X13" t="n">
-        <v>1064.422269752741</v>
+        <v>762.1810488455396</v>
       </c>
       <c r="Y13" t="n">
-        <v>870.2441999158623</v>
+        <v>568.0029790086612</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1799.46264565325</v>
+        <v>1145.729646983381</v>
       </c>
       <c r="C14" t="n">
-        <v>1457.11463801949</v>
+        <v>1145.729646983381</v>
       </c>
       <c r="D14" t="n">
-        <v>1125.46344871939</v>
+        <v>1100.265796528027</v>
       </c>
       <c r="E14" t="n">
-        <v>1125.46344871939</v>
+        <v>741.0920532364344</v>
       </c>
       <c r="F14" t="n">
         <v>741.0920532364344</v>
@@ -5270,58 +5270,58 @@
         <v>352.6430587328011</v>
       </c>
       <c r="H14" t="n">
-        <v>81.76558940107012</v>
+        <v>81.76558940107009</v>
       </c>
       <c r="I14" t="n">
-        <v>66.72810390195707</v>
+        <v>66.72810390195704</v>
       </c>
       <c r="J14" t="n">
-        <v>256.3514344205305</v>
+        <v>256.3514344205296</v>
       </c>
       <c r="K14" t="n">
-        <v>591.286170336306</v>
+        <v>591.2861703363033</v>
       </c>
       <c r="L14" t="n">
-        <v>1043.704089053051</v>
+        <v>1043.70408905305</v>
       </c>
       <c r="M14" t="n">
         <v>1578.775632670001</v>
       </c>
       <c r="N14" t="n">
-        <v>2127.119001641584</v>
+        <v>2127.119001641582</v>
       </c>
       <c r="O14" t="n">
-        <v>2631.568834526708</v>
+        <v>2631.568834526707</v>
       </c>
       <c r="P14" t="n">
-        <v>3027.604095175849</v>
+        <v>3027.604095175847</v>
       </c>
       <c r="Q14" t="n">
-        <v>3276.837336033563</v>
+        <v>3276.837336033561</v>
       </c>
       <c r="R14" t="n">
-        <v>3336.405195097854</v>
+        <v>3336.405195097852</v>
       </c>
       <c r="S14" t="n">
-        <v>3336.405195097854</v>
+        <v>3252.932900761876</v>
       </c>
       <c r="T14" t="n">
-        <v>3157.081119412734</v>
+        <v>3073.608825076755</v>
       </c>
       <c r="U14" t="n">
-        <v>3157.081119412734</v>
+        <v>2846.693573364821</v>
       </c>
       <c r="V14" t="n">
-        <v>2852.632741375814</v>
+        <v>2542.245195327902</v>
       </c>
       <c r="W14" t="n">
-        <v>2526.478595412352</v>
+        <v>2216.091049364439</v>
       </c>
       <c r="X14" t="n">
-        <v>2522.97279907988</v>
+        <v>1869.239800410011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2159.44797641072</v>
+        <v>1505.714977740851</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5352,22 @@
         <v>85.57058969378852</v>
       </c>
       <c r="I15" t="n">
-        <v>66.72810390195707</v>
+        <v>66.72810390195704</v>
       </c>
       <c r="J15" t="n">
-        <v>160.8486135519636</v>
+        <v>160.8486135519635</v>
       </c>
       <c r="K15" t="n">
-        <v>399.8703805629607</v>
+        <v>399.8703805629606</v>
       </c>
       <c r="L15" t="n">
-        <v>767.5871845825368</v>
+        <v>759.7294140618956</v>
       </c>
       <c r="M15" t="n">
-        <v>1216.052218964498</v>
+        <v>1208.194448443856</v>
       </c>
       <c r="N15" t="n">
-        <v>1690.795433272938</v>
+        <v>1682.937662752297</v>
       </c>
       <c r="O15" t="n">
         <v>2095.015160030543</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>577.9704623183487</v>
+        <v>412.9690234850711</v>
       </c>
       <c r="C16" t="n">
-        <v>435.6487886970933</v>
+        <v>311.5288182833826</v>
       </c>
       <c r="D16" t="n">
-        <v>312.1466585914092</v>
+        <v>188.0266881776985</v>
       </c>
       <c r="E16" t="n">
-        <v>190.8480743156676</v>
+        <v>66.72810390195704</v>
       </c>
       <c r="F16" t="n">
-        <v>186.2951019614265</v>
+        <v>66.72810390195704</v>
       </c>
       <c r="G16" t="n">
-        <v>186.2951019614265</v>
+        <v>66.72810390195704</v>
       </c>
       <c r="H16" t="n">
-        <v>66.72810390195707</v>
+        <v>66.72810390195704</v>
       </c>
       <c r="I16" t="n">
-        <v>66.72810390195707</v>
+        <v>66.72810390195704</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2136915521529</v>
+        <v>138.2136915521528</v>
       </c>
       <c r="K16" t="n">
         <v>368.7427171136956</v>
       </c>
       <c r="L16" t="n">
-        <v>711.9721502198745</v>
+        <v>711.9721502198744</v>
       </c>
       <c r="M16" t="n">
         <v>1082.830617586233</v>
@@ -5458,28 +5458,28 @@
         <v>2140.088775012076</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.053267149509</v>
+        <v>2077.053267149508</v>
       </c>
       <c r="S16" t="n">
-        <v>2077.053267149509</v>
+        <v>1912.051828316231</v>
       </c>
       <c r="T16" t="n">
-        <v>1881.918307575308</v>
+        <v>1716.91686874203</v>
       </c>
       <c r="U16" t="n">
-        <v>1619.430168899726</v>
+        <v>1454.428730066448</v>
       </c>
       <c r="V16" t="n">
-        <v>1391.36019000049</v>
+        <v>1226.358751167212</v>
       </c>
       <c r="W16" t="n">
-        <v>1128.557529270181</v>
+        <v>963.5560904369034</v>
       </c>
       <c r="X16" t="n">
-        <v>927.1824876788154</v>
+        <v>762.1810488455376</v>
       </c>
       <c r="Y16" t="n">
-        <v>733.0044178419369</v>
+        <v>568.0029790086592</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1636.380812617241</v>
+        <v>1523.874641378192</v>
       </c>
       <c r="C17" t="n">
-        <v>1341.300929282832</v>
+        <v>1228.794758043783</v>
       </c>
       <c r="D17" t="n">
-        <v>1056.917864282085</v>
+        <v>944.4116930430355</v>
       </c>
       <c r="E17" t="n">
-        <v>745.0122452898436</v>
+        <v>632.5060740507943</v>
       </c>
       <c r="F17" t="n">
-        <v>407.908974106239</v>
+        <v>631.5183191386185</v>
       </c>
       <c r="G17" t="n">
-        <v>66.72810390195707</v>
+        <v>290.3374489343367</v>
       </c>
       <c r="H17" t="n">
-        <v>66.72810390195707</v>
+        <v>66.72810390195706</v>
       </c>
       <c r="I17" t="n">
-        <v>66.72810390195707</v>
+        <v>66.72810390195706</v>
       </c>
       <c r="J17" t="n">
-        <v>256.3514344205305</v>
+        <v>256.35143442053</v>
       </c>
       <c r="K17" t="n">
-        <v>591.286170336306</v>
+        <v>591.2861703363038</v>
       </c>
       <c r="L17" t="n">
-        <v>1043.704089053052</v>
+        <v>1043.70408905305</v>
       </c>
       <c r="M17" t="n">
-        <v>1578.775632670003</v>
+        <v>1578.775632670001</v>
       </c>
       <c r="N17" t="n">
-        <v>2127.119001641584</v>
+        <v>2127.119001641582</v>
       </c>
       <c r="O17" t="n">
-        <v>2631.568834526709</v>
+        <v>2631.568834526708</v>
       </c>
       <c r="P17" t="n">
-        <v>3027.604095175849</v>
+        <v>3027.604095175848</v>
       </c>
       <c r="Q17" t="n">
-        <v>3276.837336033564</v>
+        <v>3276.837336033562</v>
       </c>
       <c r="R17" t="n">
-        <v>3336.405195097854</v>
+        <v>3336.405195097853</v>
       </c>
       <c r="S17" t="n">
-        <v>3300.201025061228</v>
+        <v>3300.201025061227</v>
       </c>
       <c r="T17" t="n">
         <v>3168.145073675459</v>
       </c>
       <c r="U17" t="n">
-        <v>2988.497946262876</v>
+        <v>2988.497946262875</v>
       </c>
       <c r="V17" t="n">
-        <v>2731.317692525308</v>
+        <v>2731.317692525307</v>
       </c>
       <c r="W17" t="n">
-        <v>2452.431670861197</v>
+        <v>2452.431670861196</v>
       </c>
       <c r="X17" t="n">
-        <v>2265.354717445169</v>
+        <v>2152.848546206119</v>
       </c>
       <c r="Y17" t="n">
-        <v>1949.09801907536</v>
+        <v>1836.591847836311</v>
       </c>
     </row>
     <row r="18">
@@ -5583,34 +5583,34 @@
         <v>312.3845679035434</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0262544525833</v>
+        <v>176.0262544525834</v>
       </c>
       <c r="H18" t="n">
-        <v>85.57058969378852</v>
+        <v>85.57058969378853</v>
       </c>
       <c r="I18" t="n">
-        <v>66.72810390195707</v>
+        <v>66.72810390195706</v>
       </c>
       <c r="J18" t="n">
-        <v>160.8486135519636</v>
+        <v>160.8486135519635</v>
       </c>
       <c r="K18" t="n">
-        <v>399.8703805629607</v>
+        <v>392.0126100423197</v>
       </c>
       <c r="L18" t="n">
-        <v>767.5871845825368</v>
+        <v>759.7294140618956</v>
       </c>
       <c r="M18" t="n">
-        <v>1216.052218964498</v>
+        <v>1208.194448443856</v>
       </c>
       <c r="N18" t="n">
-        <v>1690.795433272938</v>
+        <v>1682.937662752297</v>
       </c>
       <c r="O18" t="n">
-        <v>2102.872930551185</v>
+        <v>2095.015160030543</v>
       </c>
       <c r="P18" t="n">
-        <v>2414.268385267596</v>
+        <v>2406.410614746954</v>
       </c>
       <c r="Q18" t="n">
         <v>2564.651033244901</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>629.7030976076392</v>
+        <v>574.4908577075666</v>
       </c>
       <c r="C19" t="n">
-        <v>534.6495482857351</v>
+        <v>479.4373083856628</v>
       </c>
       <c r="D19" t="n">
-        <v>458.4155424794023</v>
+        <v>403.2033025793301</v>
       </c>
       <c r="E19" t="n">
-        <v>384.3850825030121</v>
+        <v>329.17284260294</v>
       </c>
       <c r="F19" t="n">
-        <v>311.3777686111046</v>
+        <v>256.1655287110326</v>
       </c>
       <c r="G19" t="n">
-        <v>217.5615786140783</v>
+        <v>162.3493387140065</v>
       </c>
       <c r="H19" t="n">
-        <v>90.05046495388865</v>
+        <v>90.05046495388854</v>
       </c>
       <c r="I19" t="n">
-        <v>66.72810390195707</v>
+        <v>66.72810390195706</v>
       </c>
       <c r="J19" t="n">
         <v>112.1288109807037</v>
       </c>
       <c r="K19" t="n">
-        <v>316.5729559707972</v>
+        <v>316.5729559707971</v>
       </c>
       <c r="L19" t="n">
-        <v>633.7175085055269</v>
+        <v>633.7175085055268</v>
       </c>
       <c r="M19" t="n">
-        <v>978.4910953004364</v>
+        <v>978.4910953004362</v>
       </c>
       <c r="N19" t="n">
         <v>1320.501353230073</v>
@@ -5692,31 +5692,31 @@
         <v>1853.470085511626</v>
       </c>
       <c r="Q19" t="n">
-        <v>1931.409730440483</v>
+        <v>1931.409730440482</v>
       </c>
       <c r="R19" t="n">
         <v>1915.642346877266</v>
       </c>
       <c r="S19" t="n">
-        <v>1797.90903234334</v>
+        <v>1742.696792443267</v>
       </c>
       <c r="T19" t="n">
-        <v>1650.04219706849</v>
+        <v>1594.829957168417</v>
       </c>
       <c r="U19" t="n">
-        <v>1434.82218269226</v>
+        <v>1379.609942792187</v>
       </c>
       <c r="V19" t="n">
-        <v>1254.020328092375</v>
+        <v>1198.808088192303</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.485791661418</v>
+        <v>983.2735517613449</v>
       </c>
       <c r="X19" t="n">
-        <v>884.3788743694031</v>
+        <v>829.1666344693306</v>
       </c>
       <c r="Y19" t="n">
-        <v>737.4689288318759</v>
+        <v>682.2566889318034</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1560.078811414817</v>
+        <v>1523.874641378193</v>
       </c>
       <c r="C20" t="n">
-        <v>1264.998928080409</v>
+        <v>1228.794758043784</v>
       </c>
       <c r="D20" t="n">
-        <v>980.615863079661</v>
+        <v>944.4116930430364</v>
       </c>
       <c r="E20" t="n">
-        <v>968.6215903222231</v>
+        <v>632.5060740507952</v>
       </c>
       <c r="F20" t="n">
-        <v>631.5183191386185</v>
+        <v>407.9089741062389</v>
       </c>
       <c r="G20" t="n">
-        <v>290.3374489343369</v>
+        <v>66.72810390195706</v>
       </c>
       <c r="H20" t="n">
-        <v>66.72810390195707</v>
+        <v>66.72810390195706</v>
       </c>
       <c r="I20" t="n">
-        <v>66.72810390195707</v>
+        <v>66.72810390195706</v>
       </c>
       <c r="J20" t="n">
-        <v>256.3514344205302</v>
+        <v>256.35143442053</v>
       </c>
       <c r="K20" t="n">
-        <v>591.2861703363041</v>
+        <v>591.2861703363038</v>
       </c>
       <c r="L20" t="n">
         <v>1043.70408905305</v>
@@ -5762,7 +5762,7 @@
         <v>1578.775632670001</v>
       </c>
       <c r="N20" t="n">
-        <v>2127.119001641583</v>
+        <v>2127.119001641582</v>
       </c>
       <c r="O20" t="n">
         <v>2631.568834526708</v>
@@ -5774,28 +5774,28 @@
         <v>3276.837336033562</v>
       </c>
       <c r="R20" t="n">
-        <v>3336.405195097854</v>
+        <v>3336.405195097853</v>
       </c>
       <c r="S20" t="n">
-        <v>3336.405195097854</v>
+        <v>3300.201025061227</v>
       </c>
       <c r="T20" t="n">
-        <v>3204.349243712085</v>
+        <v>3168.145073675459</v>
       </c>
       <c r="U20" t="n">
-        <v>3024.702116299502</v>
+        <v>2988.497946262876</v>
       </c>
       <c r="V20" t="n">
-        <v>2767.521862561934</v>
+        <v>2731.317692525308</v>
       </c>
       <c r="W20" t="n">
-        <v>2488.635840897822</v>
+        <v>2452.431670861197</v>
       </c>
       <c r="X20" t="n">
-        <v>2189.052716242745</v>
+        <v>2152.84854620612</v>
       </c>
       <c r="Y20" t="n">
-        <v>1872.796017872936</v>
+        <v>1836.591847836312</v>
       </c>
     </row>
     <row r="21">
@@ -5820,22 +5820,22 @@
         <v>312.3845679035434</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0262544525833</v>
+        <v>176.0262544525834</v>
       </c>
       <c r="H21" t="n">
-        <v>85.57058969378852</v>
+        <v>85.57058969378853</v>
       </c>
       <c r="I21" t="n">
-        <v>66.72810390195707</v>
+        <v>66.72810390195706</v>
       </c>
       <c r="J21" t="n">
-        <v>160.8486135519636</v>
+        <v>152.9908430313226</v>
       </c>
       <c r="K21" t="n">
-        <v>399.8703805629607</v>
+        <v>392.0126100423197</v>
       </c>
       <c r="L21" t="n">
-        <v>759.729414061895</v>
+        <v>759.7294140618956</v>
       </c>
       <c r="M21" t="n">
         <v>1208.194448443856</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>629.7030976076392</v>
+        <v>574.4908577075666</v>
       </c>
       <c r="C22" t="n">
-        <v>479.4373083856635</v>
+        <v>479.4373083856628</v>
       </c>
       <c r="D22" t="n">
-        <v>403.2033025793306</v>
+        <v>403.2033025793301</v>
       </c>
       <c r="E22" t="n">
-        <v>329.1728426029404</v>
+        <v>329.17284260294</v>
       </c>
       <c r="F22" t="n">
-        <v>256.1655287110329</v>
+        <v>256.1655287110326</v>
       </c>
       <c r="G22" t="n">
-        <v>162.3493387140067</v>
+        <v>162.3493387140065</v>
       </c>
       <c r="H22" t="n">
-        <v>90.05046495388865</v>
+        <v>90.05046495388854</v>
       </c>
       <c r="I22" t="n">
-        <v>66.72810390195707</v>
+        <v>66.72810390195706</v>
       </c>
       <c r="J22" t="n">
         <v>112.1288109807037</v>
       </c>
       <c r="K22" t="n">
-        <v>316.5729559707972</v>
+        <v>316.5729559707971</v>
       </c>
       <c r="L22" t="n">
-        <v>633.7175085055269</v>
+        <v>633.7175085055268</v>
       </c>
       <c r="M22" t="n">
-        <v>978.4910953004364</v>
+        <v>978.4910953004362</v>
       </c>
       <c r="N22" t="n">
         <v>1320.501353230073</v>
@@ -5929,7 +5929,7 @@
         <v>1853.470085511626</v>
       </c>
       <c r="Q22" t="n">
-        <v>1931.409730440483</v>
+        <v>1931.409730440482</v>
       </c>
       <c r="R22" t="n">
         <v>1915.642346877266</v>
@@ -5944,16 +5944,16 @@
         <v>1434.82218269226</v>
       </c>
       <c r="V22" t="n">
-        <v>1254.020328092375</v>
+        <v>1254.020328092376</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.485791661418</v>
+        <v>983.2735517613449</v>
       </c>
       <c r="X22" t="n">
-        <v>884.3788743694031</v>
+        <v>829.1666344693306</v>
       </c>
       <c r="Y22" t="n">
-        <v>737.4689288318759</v>
+        <v>682.2566889318034</v>
       </c>
     </row>
     <row r="23">
@@ -5969,70 +5969,70 @@
         <v>1571.769774647282</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.386709646535</v>
+        <v>1287.386709646534</v>
       </c>
       <c r="E23" t="n">
-        <v>975.4810906542934</v>
+        <v>975.4810906542929</v>
       </c>
       <c r="F23" t="n">
-        <v>638.3778194706888</v>
+        <v>638.3778194706883</v>
       </c>
       <c r="G23" t="n">
-        <v>297.1969492664069</v>
+        <v>297.1969492664067</v>
       </c>
       <c r="H23" t="n">
-        <v>73.58760423402705</v>
+        <v>73.58760423402701</v>
       </c>
       <c r="I23" t="n">
-        <v>73.58760423402705</v>
+        <v>73.58760423402701</v>
       </c>
       <c r="J23" t="n">
-        <v>263.2109347526001</v>
+        <v>263.2109347526</v>
       </c>
       <c r="K23" t="n">
-        <v>598.145670668374</v>
+        <v>598.1456706683738</v>
       </c>
       <c r="L23" t="n">
         <v>1050.56358938512</v>
       </c>
       <c r="M23" t="n">
-        <v>1585.635133002071</v>
+        <v>1585.63513300207</v>
       </c>
       <c r="N23" t="n">
-        <v>2133.978501973653</v>
+        <v>2133.978501973652</v>
       </c>
       <c r="O23" t="n">
-        <v>2638.428334858778</v>
+        <v>2909.484595455953</v>
       </c>
       <c r="P23" t="n">
-        <v>3095.328015351789</v>
+        <v>3305.519856105093</v>
       </c>
       <c r="Q23" t="n">
-        <v>3554.753096962809</v>
+        <v>3554.753096962807</v>
       </c>
       <c r="R23" t="n">
-        <v>3679.380211701352</v>
+        <v>3679.380211701351</v>
       </c>
       <c r="S23" t="n">
-        <v>3643.176041664727</v>
+        <v>3643.176041664725</v>
       </c>
       <c r="T23" t="n">
-        <v>3511.120090278958</v>
+        <v>3511.120090278956</v>
       </c>
       <c r="U23" t="n">
         <v>3331.472962866374</v>
       </c>
       <c r="V23" t="n">
-        <v>3074.292709128807</v>
+        <v>3074.292709128806</v>
       </c>
       <c r="W23" t="n">
-        <v>2795.406687464696</v>
+        <v>2795.406687464695</v>
       </c>
       <c r="X23" t="n">
-        <v>2495.823562809619</v>
+        <v>2495.823562809618</v>
       </c>
       <c r="Y23" t="n">
-        <v>2179.56686443981</v>
+        <v>2179.566864439809</v>
       </c>
     </row>
     <row r="24">
@@ -6060,28 +6060,28 @@
         <v>182.8857547846533</v>
       </c>
       <c r="H24" t="n">
-        <v>92.4300900258585</v>
+        <v>92.43009002585849</v>
       </c>
       <c r="I24" t="n">
-        <v>73.58760423402705</v>
+        <v>73.58760423402701</v>
       </c>
       <c r="J24" t="n">
-        <v>167.7081138840336</v>
+        <v>167.7081138840335</v>
       </c>
       <c r="K24" t="n">
-        <v>406.7298808950308</v>
+        <v>406.7298808950306</v>
       </c>
       <c r="L24" t="n">
-        <v>774.4466849146067</v>
+        <v>774.4466849146065</v>
       </c>
       <c r="M24" t="n">
-        <v>1222.911719296568</v>
+        <v>1222.911719296567</v>
       </c>
       <c r="N24" t="n">
-        <v>1697.654933605009</v>
+        <v>1697.654933605008</v>
       </c>
       <c r="O24" t="n">
-        <v>2101.874660362613</v>
+        <v>2109.732430883254</v>
       </c>
       <c r="P24" t="n">
         <v>2413.270115079024</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>581.3503580396375</v>
+        <v>581.3503580396366</v>
       </c>
       <c r="C25" t="n">
-        <v>486.2968087177335</v>
+        <v>486.2968087177327</v>
       </c>
       <c r="D25" t="n">
-        <v>410.0628029114007</v>
+        <v>410.0628029114</v>
       </c>
       <c r="E25" t="n">
-        <v>336.0323429350105</v>
+        <v>336.0323429350099</v>
       </c>
       <c r="F25" t="n">
-        <v>263.025029043103</v>
+        <v>263.0250290431026</v>
       </c>
       <c r="G25" t="n">
-        <v>169.2088390460767</v>
+        <v>169.2088390460764</v>
       </c>
       <c r="H25" t="n">
-        <v>96.90996528595863</v>
+        <v>96.90996528595849</v>
       </c>
       <c r="I25" t="n">
-        <v>73.58760423402705</v>
+        <v>73.58760423402701</v>
       </c>
       <c r="J25" t="n">
-        <v>118.9883113127737</v>
+        <v>118.9883113127736</v>
       </c>
       <c r="K25" t="n">
-        <v>323.4324563028672</v>
+        <v>323.4324563028671</v>
       </c>
       <c r="L25" t="n">
-        <v>640.5770088375968</v>
+        <v>640.5770088375967</v>
       </c>
       <c r="M25" t="n">
-        <v>985.3505956325064</v>
+        <v>985.3505956325062</v>
       </c>
       <c r="N25" t="n">
         <v>1327.360853562143</v>
@@ -6166,31 +6166,31 @@
         <v>1860.329585843696</v>
       </c>
       <c r="Q25" t="n">
-        <v>1938.269230772553</v>
+        <v>1938.269230772552</v>
       </c>
       <c r="R25" t="n">
         <v>1922.501847209336</v>
       </c>
       <c r="S25" t="n">
-        <v>1804.76853267541</v>
+        <v>1804.768532675409</v>
       </c>
       <c r="T25" t="n">
         <v>1656.90169740056</v>
       </c>
       <c r="U25" t="n">
-        <v>1441.68168302433</v>
+        <v>1441.681683024329</v>
       </c>
       <c r="V25" t="n">
         <v>1260.879828424446</v>
       </c>
       <c r="W25" t="n">
-        <v>990.1330520934159</v>
+        <v>1045.345291993488</v>
       </c>
       <c r="X25" t="n">
-        <v>836.0261348014014</v>
+        <v>836.0261348014005</v>
       </c>
       <c r="Y25" t="n">
-        <v>689.1161892638743</v>
+        <v>689.1161892638734</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2034.140859337788</v>
+        <v>2034.140859337787</v>
       </c>
       <c r="C26" t="n">
-        <v>1712.446466696728</v>
+        <v>1712.446466696726</v>
       </c>
       <c r="D26" t="n">
-        <v>1401.448892389328</v>
+        <v>1401.448892389327</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.928764090435</v>
+        <v>1062.928764090434</v>
       </c>
       <c r="F26" t="n">
-        <v>699.2109836001791</v>
+        <v>699.2109836001787</v>
       </c>
       <c r="G26" t="n">
         <v>331.4156040892447</v>
@@ -6224,28 +6224,28 @@
         <v>81.19174975021325</v>
       </c>
       <c r="J26" t="n">
-        <v>270.8150802687863</v>
+        <v>438.2207292891393</v>
       </c>
       <c r="K26" t="n">
-        <v>605.7498161845602</v>
+        <v>773.1554652049133</v>
       </c>
       <c r="L26" t="n">
-        <v>1058.167734901307</v>
+        <v>1225.57338392166</v>
       </c>
       <c r="M26" t="n">
-        <v>1593.239278518257</v>
+        <v>2205.663325696514</v>
       </c>
       <c r="N26" t="n">
-        <v>2198.058018176717</v>
+        <v>2754.006694668096</v>
       </c>
       <c r="O26" t="n">
-        <v>3079.500030511959</v>
+        <v>3258.456527553221</v>
       </c>
       <c r="P26" t="n">
-        <v>3475.535291161099</v>
+        <v>3750.786387588657</v>
       </c>
       <c r="Q26" t="n">
-        <v>3934.960372772119</v>
+        <v>4000.019628446372</v>
       </c>
       <c r="R26" t="n">
         <v>4059.587487510662</v>
@@ -6257,19 +6257,19 @@
         <v>3838.098347474965</v>
       </c>
       <c r="U26" t="n">
-        <v>3631.83671075573</v>
+        <v>3631.836710755729</v>
       </c>
       <c r="V26" t="n">
-        <v>3348.041947711511</v>
+        <v>3348.04194771151</v>
       </c>
       <c r="W26" t="n">
-        <v>3042.541416740748</v>
+        <v>3042.541416740746</v>
       </c>
       <c r="X26" t="n">
-        <v>2716.343782779019</v>
+        <v>2716.343782779018</v>
       </c>
       <c r="Y26" t="n">
-        <v>2373.472575102558</v>
+        <v>2373.472575102557</v>
       </c>
     </row>
     <row r="27">
@@ -6318,10 +6318,10 @@
         <v>1705.259079121195</v>
       </c>
       <c r="O27" t="n">
-        <v>2109.478805878799</v>
+        <v>2117.336576399441</v>
       </c>
       <c r="P27" t="n">
-        <v>2420.874260595211</v>
+        <v>2428.732031115852</v>
       </c>
       <c r="Q27" t="n">
         <v>2579.114679093158</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>775.2560687023848</v>
+        <v>775.2560687023845</v>
       </c>
       <c r="C28" t="n">
-        <v>653.5880100738292</v>
+        <v>653.5880100738289</v>
       </c>
       <c r="D28" t="n">
-        <v>550.7394949608447</v>
+        <v>550.7394949608445</v>
       </c>
       <c r="E28" t="n">
-        <v>450.0945256778028</v>
+        <v>450.0945256778027</v>
       </c>
       <c r="F28" t="n">
-        <v>350.4727024792438</v>
+        <v>350.4727024792436</v>
       </c>
       <c r="G28" t="n">
-        <v>230.0420031755659</v>
+        <v>230.0420031755658</v>
       </c>
       <c r="H28" t="n">
-        <v>131.1286201087962</v>
+        <v>131.1286201087961</v>
       </c>
       <c r="I28" t="n">
         <v>81.19174975021325</v>
       </c>
       <c r="J28" t="n">
-        <v>172.9199454547539</v>
+        <v>172.9199454547541</v>
       </c>
       <c r="K28" t="n">
-        <v>423.6915790706416</v>
+        <v>423.6915790706418</v>
       </c>
       <c r="L28" t="n">
-        <v>787.1636202311655</v>
+        <v>787.1636202311656</v>
       </c>
       <c r="M28" t="n">
         <v>1178.264695651869</v>
@@ -6397,10 +6397,10 @@
         <v>1566.6024422073</v>
       </c>
       <c r="O28" t="n">
-        <v>1912.815464480961</v>
+        <v>1912.81546448096</v>
       </c>
       <c r="P28" t="n">
-        <v>2192.226151740442</v>
+        <v>2192.226151740441</v>
       </c>
       <c r="Q28" t="n">
         <v>2316.493285295092</v>
@@ -6427,7 +6427,7 @@
         <v>1083.160864077452</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.6364092332733</v>
+        <v>909.6364092332728</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1062.928764090435</v>
       </c>
       <c r="F29" t="n">
-        <v>699.2109836001787</v>
+        <v>699.2109836001791</v>
       </c>
       <c r="G29" t="n">
         <v>331.4156040892447</v>
@@ -6461,25 +6461,25 @@
         <v>81.19174975021325</v>
       </c>
       <c r="J29" t="n">
-        <v>270.8150802687863</v>
+        <v>270.8150802687862</v>
       </c>
       <c r="K29" t="n">
-        <v>605.7498161845602</v>
+        <v>659.2582238379044</v>
       </c>
       <c r="L29" t="n">
-        <v>1058.167734901307</v>
+        <v>1111.676142554651</v>
       </c>
       <c r="M29" t="n">
-        <v>2038.257676676161</v>
+        <v>2091.766084329505</v>
       </c>
       <c r="N29" t="n">
-        <v>2586.601045647743</v>
+        <v>2640.109453301087</v>
       </c>
       <c r="O29" t="n">
-        <v>3091.050878532868</v>
+        <v>3144.559286186212</v>
       </c>
       <c r="P29" t="n">
-        <v>3540.594546835351</v>
+        <v>3540.594546835352</v>
       </c>
       <c r="Q29" t="n">
         <v>4000.019628446371</v>
@@ -6491,7 +6491,7 @@
         <v>3996.768808167385</v>
       </c>
       <c r="T29" t="n">
-        <v>3838.098347474965</v>
+        <v>3838.098347474964</v>
       </c>
       <c r="U29" t="n">
         <v>3631.83671075573</v>
@@ -6531,7 +6531,7 @@
         <v>326.8482137517996</v>
       </c>
       <c r="G30" t="n">
-        <v>190.4899003008395</v>
+        <v>190.4899003008396</v>
       </c>
       <c r="H30" t="n">
         <v>100.0342355420447</v>
@@ -6540,16 +6540,16 @@
         <v>81.19174975021325</v>
       </c>
       <c r="J30" t="n">
-        <v>167.4544888795783</v>
+        <v>175.3122594002197</v>
       </c>
       <c r="K30" t="n">
-        <v>406.4762558905754</v>
+        <v>414.3340264112168</v>
       </c>
       <c r="L30" t="n">
-        <v>774.1930599101514</v>
+        <v>774.193059910152</v>
       </c>
       <c r="M30" t="n">
-        <v>1222.658094292112</v>
+        <v>1222.658094292113</v>
       </c>
       <c r="N30" t="n">
         <v>1697.401308600553</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>775.2560687023839</v>
+        <v>775.2560687023845</v>
       </c>
       <c r="C31" t="n">
-        <v>653.5880100738283</v>
+        <v>653.5880100738289</v>
       </c>
       <c r="D31" t="n">
-        <v>550.7394949608438</v>
+        <v>550.7394949608445</v>
       </c>
       <c r="E31" t="n">
-        <v>450.094525677802</v>
+        <v>450.0945256778026</v>
       </c>
       <c r="F31" t="n">
-        <v>350.4727024792429</v>
+        <v>350.4727024792435</v>
       </c>
       <c r="G31" t="n">
-        <v>230.042003175565</v>
+        <v>230.0420031755657</v>
       </c>
       <c r="H31" t="n">
-        <v>131.1286201087954</v>
+        <v>131.1286201087964</v>
       </c>
       <c r="I31" t="n">
         <v>81.19174975021325</v>
       </c>
       <c r="J31" t="n">
-        <v>172.919945454754</v>
+        <v>172.9199454547541</v>
       </c>
       <c r="K31" t="n">
-        <v>423.6915790706417</v>
+        <v>423.6915790706424</v>
       </c>
       <c r="L31" t="n">
-        <v>787.1636202311656</v>
+        <v>787.1636202311663</v>
       </c>
       <c r="M31" t="n">
         <v>1178.264695651869</v>
       </c>
       <c r="N31" t="n">
-        <v>1566.6024422073</v>
+        <v>1566.602442207301</v>
       </c>
       <c r="O31" t="n">
-        <v>1912.81546448096</v>
+        <v>1912.815464480961</v>
       </c>
       <c r="P31" t="n">
         <v>2192.226151740441</v>
@@ -6658,13 +6658,13 @@
         <v>1506.031336413727</v>
       </c>
       <c r="W31" t="n">
-        <v>1263.882290676117</v>
+        <v>1263.882290676118</v>
       </c>
       <c r="X31" t="n">
-        <v>1083.160864077451</v>
+        <v>1083.160864077452</v>
       </c>
       <c r="Y31" t="n">
-        <v>909.6364092332724</v>
+        <v>909.6364092332728</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2034.140859337788</v>
+        <v>2034.140859337787</v>
       </c>
       <c r="C32" t="n">
-        <v>1712.446466696728</v>
+        <v>1712.446466696726</v>
       </c>
       <c r="D32" t="n">
-        <v>1401.448892389328</v>
+        <v>1401.448892389327</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.928764090435</v>
+        <v>1062.928764090434</v>
       </c>
       <c r="F32" t="n">
-        <v>699.2109836001791</v>
+        <v>699.2109836001778</v>
       </c>
       <c r="G32" t="n">
-        <v>331.4156040892447</v>
+        <v>331.4156040892445</v>
       </c>
       <c r="H32" t="n">
-        <v>81.19174975021325</v>
+        <v>81.19174975021322</v>
       </c>
       <c r="I32" t="n">
-        <v>81.19174975021325</v>
+        <v>81.19174975021322</v>
       </c>
       <c r="J32" t="n">
-        <v>438.2207292891393</v>
+        <v>270.8150802687862</v>
       </c>
       <c r="K32" t="n">
-        <v>773.1554652049133</v>
+        <v>926.653774630013</v>
       </c>
       <c r="L32" t="n">
-        <v>1389.894202015742</v>
+        <v>1491.635285038301</v>
       </c>
       <c r="M32" t="n">
-        <v>1924.965745632693</v>
+        <v>2026.706828655252</v>
       </c>
       <c r="N32" t="n">
-        <v>2473.309114604275</v>
+        <v>2575.050197626834</v>
       </c>
       <c r="O32" t="n">
-        <v>3354.751126939517</v>
+        <v>3079.500030511958</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.786387588657</v>
+        <v>3475.535291161098</v>
       </c>
       <c r="Q32" t="n">
-        <v>4000.019628446371</v>
+        <v>3934.960372772118</v>
       </c>
       <c r="R32" t="n">
-        <v>4059.587487510662</v>
+        <v>4059.587487510661</v>
       </c>
       <c r="S32" t="n">
-        <v>3996.768808167385</v>
+        <v>3996.768808167384</v>
       </c>
       <c r="T32" t="n">
         <v>3838.098347474964</v>
       </c>
       <c r="U32" t="n">
-        <v>3631.83671075573</v>
+        <v>3631.836710755729</v>
       </c>
       <c r="V32" t="n">
-        <v>3348.041947711511</v>
+        <v>3348.041947711509</v>
       </c>
       <c r="W32" t="n">
-        <v>3042.541416740748</v>
+        <v>3042.541416740746</v>
       </c>
       <c r="X32" t="n">
-        <v>2716.343782779019</v>
+        <v>2716.343782779018</v>
       </c>
       <c r="Y32" t="n">
-        <v>2373.472575102558</v>
+        <v>2373.472575102557</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>100.0342355420447</v>
       </c>
       <c r="I33" t="n">
-        <v>81.19174975021325</v>
+        <v>81.19174975021322</v>
       </c>
       <c r="J33" t="n">
-        <v>175.3122594002198</v>
+        <v>175.3122594002197</v>
       </c>
       <c r="K33" t="n">
-        <v>414.3340264112169</v>
+        <v>414.3340264112168</v>
       </c>
       <c r="L33" t="n">
-        <v>782.050830430793</v>
+        <v>782.0508304307928</v>
       </c>
       <c r="M33" t="n">
         <v>1230.515864812754</v>
       </c>
       <c r="N33" t="n">
-        <v>1697.401308600553</v>
+        <v>1705.259079121194</v>
       </c>
       <c r="O33" t="n">
-        <v>2109.478805878799</v>
+        <v>2117.33657639944</v>
       </c>
       <c r="P33" t="n">
-        <v>2420.874260595211</v>
+        <v>2428.732031115851</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.114679093158</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>775.2560687023848</v>
+        <v>775.2560687023845</v>
       </c>
       <c r="C34" t="n">
-        <v>653.5880100738292</v>
+        <v>653.5880100738289</v>
       </c>
       <c r="D34" t="n">
-        <v>550.7394949608447</v>
+        <v>550.7394949608445</v>
       </c>
       <c r="E34" t="n">
-        <v>450.0945256778029</v>
+        <v>450.0945256778027</v>
       </c>
       <c r="F34" t="n">
-        <v>350.4727024792438</v>
+        <v>350.4727024792437</v>
       </c>
       <c r="G34" t="n">
         <v>230.0420031755659</v>
       </c>
       <c r="H34" t="n">
-        <v>131.1286201087962</v>
+        <v>131.1286201087964</v>
       </c>
       <c r="I34" t="n">
-        <v>81.19174975021325</v>
+        <v>81.19174975021322</v>
       </c>
       <c r="J34" t="n">
         <v>172.9199454547541</v>
       </c>
       <c r="K34" t="n">
-        <v>423.691579070642</v>
+        <v>423.6915790706415</v>
       </c>
       <c r="L34" t="n">
-        <v>787.1636202311659</v>
+        <v>787.1636202311654</v>
       </c>
       <c r="M34" t="n">
         <v>1178.264695651869</v>
@@ -6874,7 +6874,7 @@
         <v>1912.81546448096</v>
       </c>
       <c r="P34" t="n">
-        <v>2192.226151740442</v>
+        <v>2192.226151740441</v>
       </c>
       <c r="Q34" t="n">
         <v>2316.493285295092</v>
@@ -6901,7 +6901,7 @@
         <v>1083.160864077452</v>
       </c>
       <c r="Y34" t="n">
-        <v>909.6364092332733</v>
+        <v>909.6364092332728</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6923,40 @@
         <v>1062.928764090435</v>
       </c>
       <c r="F35" t="n">
-        <v>699.2109836001789</v>
+        <v>699.2109836001788</v>
       </c>
       <c r="G35" t="n">
         <v>331.4156040892447</v>
       </c>
       <c r="H35" t="n">
-        <v>81.19174975021325</v>
+        <v>81.19174975021323</v>
       </c>
       <c r="I35" t="n">
-        <v>81.19174975021325</v>
+        <v>81.19174975021323</v>
       </c>
       <c r="J35" t="n">
-        <v>270.8150802687863</v>
+        <v>270.8150802687862</v>
       </c>
       <c r="K35" t="n">
-        <v>605.7498161845602</v>
+        <v>605.74981618456</v>
       </c>
       <c r="L35" t="n">
-        <v>1058.167734901307</v>
+        <v>1471.652337306252</v>
       </c>
       <c r="M35" t="n">
-        <v>2038.257676676161</v>
+        <v>2006.723880923203</v>
       </c>
       <c r="N35" t="n">
-        <v>2586.601045647743</v>
+        <v>2555.067249894784</v>
       </c>
       <c r="O35" t="n">
-        <v>3091.050878532868</v>
+        <v>3079.500030511959</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.786387588657</v>
+        <v>3475.535291161098</v>
       </c>
       <c r="Q35" t="n">
-        <v>4000.019628446371</v>
+        <v>3934.960372772118</v>
       </c>
       <c r="R35" t="n">
         <v>4059.587487510662</v>
@@ -6968,7 +6968,7 @@
         <v>3838.098347474964</v>
       </c>
       <c r="U35" t="n">
-        <v>3631.83671075573</v>
+        <v>3631.836710755729</v>
       </c>
       <c r="V35" t="n">
         <v>3348.04194771151</v>
@@ -7011,22 +7011,22 @@
         <v>100.0342355420447</v>
       </c>
       <c r="I36" t="n">
-        <v>81.19174975021325</v>
+        <v>81.19174975021323</v>
       </c>
       <c r="J36" t="n">
-        <v>175.3122594002198</v>
+        <v>175.3122594002197</v>
       </c>
       <c r="K36" t="n">
-        <v>414.3340264112169</v>
+        <v>414.3340264112168</v>
       </c>
       <c r="L36" t="n">
-        <v>782.050830430793</v>
+        <v>774.193059910152</v>
       </c>
       <c r="M36" t="n">
-        <v>1230.515864812754</v>
+        <v>1222.658094292113</v>
       </c>
       <c r="N36" t="n">
-        <v>1705.259079121195</v>
+        <v>1697.401308600553</v>
       </c>
       <c r="O36" t="n">
         <v>2109.478805878799</v>
@@ -7078,7 +7078,7 @@
         <v>550.7394949608447</v>
       </c>
       <c r="E37" t="n">
-        <v>450.0945256778029</v>
+        <v>450.0945256778028</v>
       </c>
       <c r="F37" t="n">
         <v>350.4727024792438</v>
@@ -7087,19 +7087,19 @@
         <v>230.042003175566</v>
       </c>
       <c r="H37" t="n">
-        <v>131.1286201087963</v>
+        <v>131.1286201087964</v>
       </c>
       <c r="I37" t="n">
-        <v>81.19174975021325</v>
+        <v>81.19174975021323</v>
       </c>
       <c r="J37" t="n">
-        <v>172.9199454547542</v>
+        <v>172.9199454547541</v>
       </c>
       <c r="K37" t="n">
-        <v>423.6915790706419</v>
+        <v>423.6915790706416</v>
       </c>
       <c r="L37" t="n">
-        <v>787.1636202311657</v>
+        <v>787.1636202311655</v>
       </c>
       <c r="M37" t="n">
         <v>1178.264695651869</v>
@@ -7108,7 +7108,7 @@
         <v>1566.6024422073</v>
       </c>
       <c r="O37" t="n">
-        <v>1912.815464480961</v>
+        <v>1912.81546448096</v>
       </c>
       <c r="P37" t="n">
         <v>2192.226151740442</v>
@@ -7129,7 +7129,7 @@
         <v>1713.447700320263</v>
       </c>
       <c r="V37" t="n">
-        <v>1506.031336413727</v>
+        <v>1506.031336413728</v>
       </c>
       <c r="W37" t="n">
         <v>1263.882290676118</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2034.140859337787</v>
+        <v>2034.140859337788</v>
       </c>
       <c r="C38" t="n">
-        <v>1712.446466696726</v>
+        <v>1712.446466696727</v>
       </c>
       <c r="D38" t="n">
         <v>1401.448892389328</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.928764090434</v>
+        <v>1062.928764090435</v>
       </c>
       <c r="F38" t="n">
-        <v>699.2109836001781</v>
+        <v>699.2109836001788</v>
       </c>
       <c r="G38" t="n">
         <v>331.4156040892447</v>
       </c>
       <c r="H38" t="n">
-        <v>81.19174975021322</v>
+        <v>81.19174975021325</v>
       </c>
       <c r="I38" t="n">
-        <v>81.19174975021322</v>
+        <v>81.19174975021325</v>
       </c>
       <c r="J38" t="n">
-        <v>270.8150802687863</v>
+        <v>438.2207292891392</v>
       </c>
       <c r="K38" t="n">
-        <v>605.7498161845601</v>
+        <v>773.1554652049131</v>
       </c>
       <c r="L38" t="n">
-        <v>1321.867983307955</v>
+        <v>1225.573383921659</v>
       </c>
       <c r="M38" t="n">
-        <v>2301.95792508281</v>
+        <v>1760.64492753861</v>
       </c>
       <c r="N38" t="n">
-        <v>2850.301294054392</v>
+        <v>2308.988296510192</v>
       </c>
       <c r="O38" t="n">
-        <v>3354.751126939516</v>
+        <v>3079.500030511959</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.786387588656</v>
+        <v>3475.535291161099</v>
       </c>
       <c r="Q38" t="n">
-        <v>4000.01962844637</v>
+        <v>3934.960372772119</v>
       </c>
       <c r="R38" t="n">
-        <v>4059.587487510661</v>
+        <v>4059.587487510662</v>
       </c>
       <c r="S38" t="n">
-        <v>3996.768808167384</v>
+        <v>3996.768808167385</v>
       </c>
       <c r="T38" t="n">
-        <v>3838.098347474963</v>
+        <v>3838.098347474964</v>
       </c>
       <c r="U38" t="n">
-        <v>3631.836710755729</v>
+        <v>3631.83671075573</v>
       </c>
       <c r="V38" t="n">
-        <v>3348.041947711509</v>
+        <v>3348.04194771151</v>
       </c>
       <c r="W38" t="n">
-        <v>3042.541416740746</v>
+        <v>3042.541416740747</v>
       </c>
       <c r="X38" t="n">
-        <v>2716.343782779018</v>
+        <v>2716.343782779019</v>
       </c>
       <c r="Y38" t="n">
-        <v>2373.472575102557</v>
+        <v>2373.472575102558</v>
       </c>
     </row>
     <row r="39">
@@ -7242,34 +7242,34 @@
         <v>326.8482137517996</v>
       </c>
       <c r="G39" t="n">
-        <v>190.4899003008395</v>
+        <v>190.4899003008396</v>
       </c>
       <c r="H39" t="n">
         <v>100.0342355420447</v>
       </c>
       <c r="I39" t="n">
-        <v>81.19174975021322</v>
+        <v>81.19174975021325</v>
       </c>
       <c r="J39" t="n">
-        <v>175.3122594002197</v>
+        <v>167.454488879579</v>
       </c>
       <c r="K39" t="n">
-        <v>414.3340264112169</v>
+        <v>406.4762558905761</v>
       </c>
       <c r="L39" t="n">
-        <v>782.0508304307929</v>
+        <v>774.193059910152</v>
       </c>
       <c r="M39" t="n">
-        <v>1230.515864812754</v>
+        <v>1222.658094292113</v>
       </c>
       <c r="N39" t="n">
-        <v>1705.259079121195</v>
+        <v>1697.401308600553</v>
       </c>
       <c r="O39" t="n">
-        <v>2117.336576399441</v>
+        <v>2109.478805878799</v>
       </c>
       <c r="P39" t="n">
-        <v>2428.732031115852</v>
+        <v>2420.874260595211</v>
       </c>
       <c r="Q39" t="n">
         <v>2579.114679093158</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>775.2560687023851</v>
+        <v>775.2560687023848</v>
       </c>
       <c r="C40" t="n">
-        <v>653.5880100738294</v>
+        <v>653.5880100738292</v>
       </c>
       <c r="D40" t="n">
-        <v>550.7394949608449</v>
+        <v>550.7394949608448</v>
       </c>
       <c r="E40" t="n">
-        <v>450.0945256778031</v>
+        <v>450.094525677803</v>
       </c>
       <c r="F40" t="n">
-        <v>350.472702479244</v>
+        <v>350.4727024792439</v>
       </c>
       <c r="G40" t="n">
         <v>230.0420031755661</v>
@@ -7327,7 +7327,7 @@
         <v>131.1286201087964</v>
       </c>
       <c r="I40" t="n">
-        <v>81.19174975021322</v>
+        <v>81.19174975021325</v>
       </c>
       <c r="J40" t="n">
         <v>172.919945454754</v>
@@ -7336,7 +7336,7 @@
         <v>423.6915790706417</v>
       </c>
       <c r="L40" t="n">
-        <v>787.1636202311656</v>
+        <v>787.1636202311655</v>
       </c>
       <c r="M40" t="n">
         <v>1178.264695651869</v>
@@ -7345,28 +7345,28 @@
         <v>1566.6024422073</v>
       </c>
       <c r="O40" t="n">
-        <v>1912.815464480961</v>
+        <v>1912.81546448096</v>
       </c>
       <c r="P40" t="n">
-        <v>2192.226151740442</v>
+        <v>2192.226151740441</v>
       </c>
       <c r="Q40" t="n">
-        <v>2316.493285295093</v>
+        <v>2316.493285295092</v>
       </c>
       <c r="R40" t="n">
-        <v>2274.111392425225</v>
+        <v>2274.111392425224</v>
       </c>
       <c r="S40" t="n">
-        <v>2129.763568584647</v>
+        <v>2129.763568584646</v>
       </c>
       <c r="T40" t="n">
-        <v>1955.282224003146</v>
+        <v>1955.282224003145</v>
       </c>
       <c r="U40" t="n">
         <v>1713.447700320263</v>
       </c>
       <c r="V40" t="n">
-        <v>1506.031336413728</v>
+        <v>1506.031336413727</v>
       </c>
       <c r="W40" t="n">
         <v>1263.882290676118</v>
@@ -7375,7 +7375,7 @@
         <v>1083.160864077452</v>
       </c>
       <c r="Y40" t="n">
-        <v>909.6364092332735</v>
+        <v>909.6364092332733</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2034.140859337787</v>
+        <v>2034.140859337786</v>
       </c>
       <c r="C41" t="n">
         <v>1712.446466696726</v>
@@ -7397,10 +7397,10 @@
         <v>1062.928764090434</v>
       </c>
       <c r="F41" t="n">
-        <v>699.2109836001779</v>
+        <v>699.2109836001778</v>
       </c>
       <c r="G41" t="n">
-        <v>331.4156040892447</v>
+        <v>331.4156040892446</v>
       </c>
       <c r="H41" t="n">
         <v>81.19174975021322</v>
@@ -7409,22 +7409,22 @@
         <v>81.19174975021322</v>
       </c>
       <c r="J41" t="n">
-        <v>270.8150802687863</v>
+        <v>270.8150802687862</v>
       </c>
       <c r="K41" t="n">
-        <v>926.6537746300135</v>
+        <v>605.7498161845599</v>
       </c>
       <c r="L41" t="n">
-        <v>1379.07169334676</v>
+        <v>1071.313480925973</v>
       </c>
       <c r="M41" t="n">
-        <v>2301.957925082808</v>
+        <v>1606.385024542924</v>
       </c>
       <c r="N41" t="n">
-        <v>2850.30129405439</v>
+        <v>2154.728393514506</v>
       </c>
       <c r="O41" t="n">
-        <v>3354.751126939515</v>
+        <v>3036.170405849748</v>
       </c>
       <c r="P41" t="n">
         <v>3750.786387588656</v>
@@ -7445,16 +7445,16 @@
         <v>3631.836710755729</v>
       </c>
       <c r="V41" t="n">
-        <v>3348.04194771151</v>
+        <v>3348.041947711509</v>
       </c>
       <c r="W41" t="n">
-        <v>3042.541416740747</v>
+        <v>3042.541416740746</v>
       </c>
       <c r="X41" t="n">
         <v>2716.343782779018</v>
       </c>
       <c r="Y41" t="n">
-        <v>2373.472575102558</v>
+        <v>2373.472575102557</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.0076656727482</v>
+        <v>956.0076656727484</v>
       </c>
       <c r="C42" t="n">
-        <v>781.5546363916212</v>
+        <v>781.5546363916214</v>
       </c>
       <c r="D42" t="n">
-        <v>632.62022673037</v>
+        <v>632.6202267303702</v>
       </c>
       <c r="E42" t="n">
-        <v>473.3827717249145</v>
+        <v>473.3827717249146</v>
       </c>
       <c r="F42" t="n">
-        <v>326.8482137517995</v>
+        <v>326.8482137517996</v>
       </c>
       <c r="G42" t="n">
         <v>190.4899003008395</v>
@@ -7488,16 +7488,16 @@
         <v>81.19174975021322</v>
       </c>
       <c r="J42" t="n">
-        <v>167.4544888795771</v>
+        <v>175.3122594002197</v>
       </c>
       <c r="K42" t="n">
-        <v>406.4762558905743</v>
+        <v>414.3340264112168</v>
       </c>
       <c r="L42" t="n">
-        <v>774.1930599101504</v>
+        <v>782.0508304307928</v>
       </c>
       <c r="M42" t="n">
-        <v>1222.658094292111</v>
+        <v>1222.658094292113</v>
       </c>
       <c r="N42" t="n">
         <v>1697.401308600553</v>
@@ -7506,25 +7506,25 @@
         <v>2109.478805878799</v>
       </c>
       <c r="P42" t="n">
-        <v>2420.87426059521</v>
+        <v>2420.874260595211</v>
       </c>
       <c r="Q42" t="n">
-        <v>2579.114679093157</v>
+        <v>2579.114679093158</v>
       </c>
       <c r="R42" t="n">
         <v>2579.264480417563</v>
       </c>
       <c r="S42" t="n">
-        <v>2449.915505069142</v>
+        <v>2449.915505069143</v>
       </c>
       <c r="T42" t="n">
-        <v>2257.291798573277</v>
+        <v>2257.291798573278</v>
       </c>
       <c r="U42" t="n">
         <v>2029.224266623247</v>
       </c>
       <c r="V42" t="n">
-        <v>1794.072158391504</v>
+        <v>1794.072158391505</v>
       </c>
       <c r="W42" t="n">
         <v>1539.834801663303</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>775.2560687023847</v>
+        <v>775.2560687023844</v>
       </c>
       <c r="C43" t="n">
-        <v>653.5880100738291</v>
+        <v>653.5880100738287</v>
       </c>
       <c r="D43" t="n">
-        <v>550.7394949608446</v>
+        <v>550.7394949608444</v>
       </c>
       <c r="E43" t="n">
-        <v>450.0945256778028</v>
+        <v>450.0945256778026</v>
       </c>
       <c r="F43" t="n">
-        <v>350.4727024792437</v>
+        <v>350.4727024792435</v>
       </c>
       <c r="G43" t="n">
         <v>230.0420031755657</v>
       </c>
       <c r="H43" t="n">
-        <v>131.128620108796</v>
+        <v>131.1286201087964</v>
       </c>
       <c r="I43" t="n">
         <v>81.19174975021322</v>
@@ -7570,10 +7570,10 @@
         <v>172.919945454754</v>
       </c>
       <c r="K43" t="n">
-        <v>423.6915790706417</v>
+        <v>423.6915790706416</v>
       </c>
       <c r="L43" t="n">
-        <v>787.1636202311656</v>
+        <v>787.1636202311654</v>
       </c>
       <c r="M43" t="n">
         <v>1178.264695651869</v>
@@ -7600,10 +7600,10 @@
         <v>1955.282224003145</v>
       </c>
       <c r="U43" t="n">
-        <v>1713.447700320263</v>
+        <v>1713.447700320262</v>
       </c>
       <c r="V43" t="n">
-        <v>1506.031336413728</v>
+        <v>1506.031336413727</v>
       </c>
       <c r="W43" t="n">
         <v>1263.882290676118</v>
@@ -7612,7 +7612,7 @@
         <v>1083.160864077452</v>
       </c>
       <c r="Y43" t="n">
-        <v>909.6364092332732</v>
+        <v>909.6364092332728</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2034.140859337787</v>
+        <v>2034.140859337786</v>
       </c>
       <c r="C44" t="n">
         <v>1712.446466696726</v>
@@ -7634,10 +7634,10 @@
         <v>1062.928764090434</v>
       </c>
       <c r="F44" t="n">
-        <v>699.2109836001782</v>
+        <v>699.210983600178</v>
       </c>
       <c r="G44" t="n">
-        <v>331.4156040892446</v>
+        <v>331.4156040892445</v>
       </c>
       <c r="H44" t="n">
         <v>81.19174975021322</v>
@@ -7646,19 +7646,19 @@
         <v>81.19174975021322</v>
       </c>
       <c r="J44" t="n">
-        <v>438.2207292891393</v>
+        <v>270.8150802687862</v>
       </c>
       <c r="K44" t="n">
-        <v>1094.059423650366</v>
+        <v>605.7498161845599</v>
       </c>
       <c r="L44" t="n">
-        <v>1546.477342367113</v>
+        <v>1471.652337306252</v>
       </c>
       <c r="M44" t="n">
-        <v>2081.548885984064</v>
+        <v>2006.723880923202</v>
       </c>
       <c r="N44" t="n">
-        <v>2629.892254955646</v>
+        <v>2785.242038380139</v>
       </c>
       <c r="O44" t="n">
         <v>3289.691871265263</v>
@@ -7673,25 +7673,25 @@
         <v>4059.587487510661</v>
       </c>
       <c r="S44" t="n">
-        <v>3996.768808167384</v>
+        <v>3996.768808167383</v>
       </c>
       <c r="T44" t="n">
-        <v>3838.098347474964</v>
+        <v>3838.098347474963</v>
       </c>
       <c r="U44" t="n">
-        <v>3631.836710755729</v>
+        <v>3631.836710755728</v>
       </c>
       <c r="V44" t="n">
-        <v>3348.041947711509</v>
+        <v>3348.041947711508</v>
       </c>
       <c r="W44" t="n">
-        <v>3042.541416740746</v>
+        <v>3042.541416740745</v>
       </c>
       <c r="X44" t="n">
-        <v>2716.343782779018</v>
+        <v>2716.343782779017</v>
       </c>
       <c r="Y44" t="n">
-        <v>2373.472575102557</v>
+        <v>2373.472575102556</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.0076656727482</v>
+        <v>956.0076656727484</v>
       </c>
       <c r="C45" t="n">
-        <v>781.5546363916212</v>
+        <v>781.5546363916214</v>
       </c>
       <c r="D45" t="n">
-        <v>632.62022673037</v>
+        <v>632.6202267303702</v>
       </c>
       <c r="E45" t="n">
-        <v>473.3827717249145</v>
+        <v>473.3827717249146</v>
       </c>
       <c r="F45" t="n">
-        <v>326.8482137517995</v>
+        <v>326.8482137517996</v>
       </c>
       <c r="G45" t="n">
         <v>190.4899003008395</v>
@@ -7725,43 +7725,43 @@
         <v>81.19174975021322</v>
       </c>
       <c r="J45" t="n">
-        <v>175.3122594002198</v>
+        <v>175.3122594002197</v>
       </c>
       <c r="K45" t="n">
-        <v>414.334026411217</v>
+        <v>414.3340264112168</v>
       </c>
       <c r="L45" t="n">
-        <v>782.0508304307931</v>
+        <v>774.193059910152</v>
       </c>
       <c r="M45" t="n">
-        <v>1230.515864812754</v>
+        <v>1222.658094292113</v>
       </c>
       <c r="N45" t="n">
-        <v>1705.259079121195</v>
+        <v>1697.401308600553</v>
       </c>
       <c r="O45" t="n">
         <v>2109.478805878799</v>
       </c>
       <c r="P45" t="n">
-        <v>2420.87426059521</v>
+        <v>2420.874260595211</v>
       </c>
       <c r="Q45" t="n">
-        <v>2579.114679093157</v>
+        <v>2579.114679093158</v>
       </c>
       <c r="R45" t="n">
         <v>2579.264480417563</v>
       </c>
       <c r="S45" t="n">
-        <v>2449.915505069142</v>
+        <v>2449.915505069143</v>
       </c>
       <c r="T45" t="n">
-        <v>2257.291798573277</v>
+        <v>2257.291798573278</v>
       </c>
       <c r="U45" t="n">
         <v>2029.224266623247</v>
       </c>
       <c r="V45" t="n">
-        <v>1794.072158391504</v>
+        <v>1794.072158391505</v>
       </c>
       <c r="W45" t="n">
         <v>1539.834801663303</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>775.2560687023846</v>
+        <v>775.2560687023844</v>
       </c>
       <c r="C46" t="n">
-        <v>653.588010073829</v>
+        <v>653.5880100738289</v>
       </c>
       <c r="D46" t="n">
-        <v>550.7394949608446</v>
+        <v>550.7394949608445</v>
       </c>
       <c r="E46" t="n">
-        <v>450.0945256778028</v>
+        <v>450.0945256778027</v>
       </c>
       <c r="F46" t="n">
-        <v>350.4727024792438</v>
+        <v>350.4727024792437</v>
       </c>
       <c r="G46" t="n">
-        <v>230.042003175566</v>
+        <v>230.0420031755659</v>
       </c>
       <c r="H46" t="n">
-        <v>131.1286201087964</v>
+        <v>131.1286201087963</v>
       </c>
       <c r="I46" t="n">
         <v>81.19174975021322</v>
@@ -7810,46 +7810,46 @@
         <v>423.6915790706419</v>
       </c>
       <c r="L46" t="n">
-        <v>787.1636202311659</v>
+        <v>787.1636202311645</v>
       </c>
       <c r="M46" t="n">
-        <v>1178.26469565187</v>
+        <v>1178.264695651868</v>
       </c>
       <c r="N46" t="n">
-        <v>1566.602442207301</v>
+        <v>1566.602442207299</v>
       </c>
       <c r="O46" t="n">
-        <v>1912.815464480961</v>
+        <v>1912.815464480959</v>
       </c>
       <c r="P46" t="n">
-        <v>2192.226151740441</v>
+        <v>2192.22615174044</v>
       </c>
       <c r="Q46" t="n">
-        <v>2316.493285295092</v>
+        <v>2316.493285295091</v>
       </c>
       <c r="R46" t="n">
         <v>2274.111392425224</v>
       </c>
       <c r="S46" t="n">
-        <v>2129.763568584646</v>
+        <v>2129.763568584645</v>
       </c>
       <c r="T46" t="n">
-        <v>1955.282224003145</v>
+        <v>1955.282224003144</v>
       </c>
       <c r="U46" t="n">
-        <v>1713.447700320263</v>
+        <v>1713.447700320262</v>
       </c>
       <c r="V46" t="n">
         <v>1506.031336413727</v>
       </c>
       <c r="W46" t="n">
-        <v>1263.882290676118</v>
+        <v>1263.882290676117</v>
       </c>
       <c r="X46" t="n">
         <v>1083.160864077452</v>
       </c>
       <c r="Y46" t="n">
-        <v>909.636409233273</v>
+        <v>909.6364092332727</v>
       </c>
     </row>
   </sheetData>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>6.963318810448982e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9650,13 +9650,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>273.7942026234105</v>
       </c>
       <c r="P23" t="n">
-        <v>61.47921196350632</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>57.04582897664386</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>97.26727210737027</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>54.04889661953985</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>54.04889661953865</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>165.980624337457</v>
+        <v>113.7005976682245</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,25 +10589,25 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>20.1847956889394</v>
       </c>
       <c r="P35" t="n">
-        <v>266.3638872794435</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>266.3638872794431</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>268.7493950673164</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,22 +11060,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>13.27853133804763</v>
       </c>
       <c r="M41" t="n">
-        <v>391.7320082011086</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11294,22 +11294,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>232.4997863488429</v>
       </c>
       <c r="O44" t="n">
-        <v>156.9189731560524</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.28796821707176</v>
+        <v>15.28796821707175</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23258,16 +23258,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>324.3030641793401</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>328.3346774070978</v>
       </c>
       <c r="E11" t="n">
-        <v>355.5820058586767</v>
+        <v>293.915315606621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>380.5276815281263</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>322.8926045038279</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>38.75838338125922</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>120.085598432984</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>119.0726838093461</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.6734711534137</v>
       </c>
       <c r="H13" t="n">
-        <v>118.3713280788746</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.88458049777</v>
+        <v>69.88458049776995</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.40515278394203</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>193.1836099784586</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>43.63004593572968</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.9245275574224</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>283.3254654562973</v>
       </c>
       <c r="E14" t="n">
-        <v>355.5820058586767</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>380.5276815281263</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.63757139261682</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.6460991948152</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>339.9119980957371</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>40.4726537353711</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>114.5652411786475</v>
+        <v>119.0726838093461</v>
       </c>
       <c r="G16" t="n">
-        <v>139.6734711534138</v>
+        <v>139.6734711534137</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>118.3713280788746</v>
       </c>
       <c r="I16" t="n">
-        <v>69.88458049777009</v>
+        <v>69.88458049777002</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>163.3514244449452</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23741,13 +23741,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>332.7543611087144</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>221.373251582056</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>111.3811095266575</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23975,16 +23975,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>296.9122327724554</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>111.381109526657</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>221.3732515820559</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.84212833625899</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.037392394209746e-12</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>994002.8790459982</v>
+        <v>994002.8790459984</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>327710.5354868153</v>
+        <v>327710.5354868152</v>
       </c>
       <c r="C2" t="n">
         <v>327711.0057412658</v>
@@ -26320,40 +26320,40 @@
         <v>327715.0182081874</v>
       </c>
       <c r="E2" t="n">
-        <v>291808.509502463</v>
+        <v>291808.5095024629</v>
       </c>
       <c r="F2" t="n">
-        <v>291808.5095024631</v>
+        <v>291808.5095024629</v>
       </c>
       <c r="G2" t="n">
-        <v>317821.8090880119</v>
+        <v>317821.8090880121</v>
       </c>
       <c r="H2" t="n">
-        <v>317821.8090880119</v>
+        <v>317821.8090880121</v>
       </c>
       <c r="I2" t="n">
         <v>328416.7079457134</v>
       </c>
       <c r="J2" t="n">
+        <v>328416.7079457134</v>
+      </c>
+      <c r="K2" t="n">
+        <v>328416.7079457135</v>
+      </c>
+      <c r="L2" t="n">
         <v>328416.7079457136</v>
-      </c>
-      <c r="K2" t="n">
-        <v>328416.7079457134</v>
-      </c>
-      <c r="L2" t="n">
-        <v>328416.7079457134</v>
       </c>
       <c r="M2" t="n">
         <v>328416.7079457135</v>
       </c>
       <c r="N2" t="n">
-        <v>328416.7079457136</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="O2" t="n">
         <v>328416.7079457135</v>
       </c>
       <c r="P2" t="n">
-        <v>328416.7079457137</v>
+        <v>328416.7079457135</v>
       </c>
     </row>
     <row r="3">
@@ -26372,31 +26372,31 @@
         <v>26846.35036165577</v>
       </c>
       <c r="E3" t="n">
-        <v>1119286.690307389</v>
+        <v>1119286.690307388</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37436.35444508625</v>
+        <v>37436.35444508627</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22801.06484755475</v>
+        <v>22801.06484755468</v>
       </c>
       <c r="J3" t="n">
-        <v>24869.73811796277</v>
+        <v>24869.73811796289</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37436.35444508626</v>
+        <v>37436.3544450863</v>
       </c>
       <c r="M3" t="n">
-        <v>207861.3800597914</v>
+        <v>207861.3800597913</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>416644.6257773438</v>
       </c>
       <c r="E4" t="n">
-        <v>36398.01798535667</v>
+        <v>36398.01798535675</v>
       </c>
       <c r="F4" t="n">
-        <v>36398.0179853566</v>
+        <v>36398.01798535669</v>
       </c>
       <c r="G4" t="n">
-        <v>73451.80681627581</v>
+        <v>73451.80681627593</v>
       </c>
       <c r="H4" t="n">
-        <v>73451.80681627584</v>
+        <v>73451.80681627593</v>
       </c>
       <c r="I4" t="n">
-        <v>83626.73646611923</v>
+        <v>83626.73646611928</v>
       </c>
       <c r="J4" t="n">
         <v>78262.53648290443</v>
       </c>
       <c r="K4" t="n">
-        <v>78262.5364829044</v>
+        <v>78262.53648290448</v>
       </c>
       <c r="L4" t="n">
-        <v>78262.53648290443</v>
+        <v>78262.53648290448</v>
       </c>
       <c r="M4" t="n">
-        <v>78262.53648290443</v>
+        <v>78262.53648290448</v>
       </c>
       <c r="N4" t="n">
-        <v>78262.5364829044</v>
+        <v>78262.53648290447</v>
       </c>
       <c r="O4" t="n">
-        <v>78262.53648290432</v>
+        <v>78262.53648290444</v>
       </c>
       <c r="P4" t="n">
-        <v>78262.53648290438</v>
+        <v>78262.5364829045</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>34391.06348367693</v>
       </c>
       <c r="E5" t="n">
-        <v>76733.60032240811</v>
+        <v>76733.60032240808</v>
       </c>
       <c r="F5" t="n">
-        <v>76733.60032240811</v>
+        <v>76733.60032240808</v>
       </c>
       <c r="G5" t="n">
         <v>80667.64642471305</v>
@@ -26488,7 +26488,7 @@
         <v>80667.64642471305</v>
       </c>
       <c r="I5" t="n">
-        <v>85880.86667708623</v>
+        <v>85880.86667708622</v>
       </c>
       <c r="J5" t="n">
         <v>89444.93663831586</v>
@@ -26500,16 +26500,16 @@
         <v>89444.93663831585</v>
       </c>
       <c r="M5" t="n">
-        <v>89444.93663831586</v>
+        <v>89444.93663831585</v>
       </c>
       <c r="N5" t="n">
         <v>89444.93663831585</v>
       </c>
       <c r="O5" t="n">
-        <v>89444.93663831585</v>
+        <v>89444.93663831583</v>
       </c>
       <c r="P5" t="n">
-        <v>89444.93663831585</v>
+        <v>89444.93663831583</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-131440.2036792882</v>
+        <v>-131444.6172571564</v>
       </c>
       <c r="C6" t="n">
-        <v>-133917.368847277</v>
+        <v>-133921.7794860548</v>
       </c>
       <c r="D6" t="n">
-        <v>-150167.0214144891</v>
+        <v>-150171.4069753486</v>
       </c>
       <c r="E6" t="n">
-        <v>-940609.7991126905</v>
+        <v>-940838.6003529606</v>
       </c>
       <c r="F6" t="n">
-        <v>178676.8911946985</v>
+        <v>178448.0899544279</v>
       </c>
       <c r="G6" t="n">
-        <v>126266.0014019367</v>
+        <v>126199.7832840762</v>
       </c>
       <c r="H6" t="n">
-        <v>163702.355847023</v>
+        <v>163636.1377291625</v>
       </c>
       <c r="I6" t="n">
         <v>136108.0399549532</v>
       </c>
       <c r="J6" t="n">
-        <v>135839.4967065305</v>
+        <v>135839.4967065302</v>
       </c>
       <c r="K6" t="n">
         <v>160709.2348244932</v>
@@ -26552,16 +26552,16 @@
         <v>123272.8803794069</v>
       </c>
       <c r="M6" t="n">
-        <v>-47152.14523529819</v>
+        <v>-47152.14523529811</v>
       </c>
       <c r="N6" t="n">
-        <v>160709.2348244934</v>
+        <v>160709.2348244932</v>
       </c>
       <c r="O6" t="n">
-        <v>160709.2348244934</v>
+        <v>160709.2348244932</v>
       </c>
       <c r="P6" t="n">
-        <v>160709.2348244934</v>
+        <v>160709.2348244932</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="F2" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="G2" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="H2" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="I2" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="J2" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="K2" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="L2" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="M2" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="N2" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="O2" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="P2" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
     </row>
     <row r="3">
@@ -26774,10 +26774,10 @@
         <v>1091.97984980958</v>
       </c>
       <c r="O3" t="n">
-        <v>1091.979849809581</v>
+        <v>1091.97984980958</v>
       </c>
       <c r="P3" t="n">
-        <v>1091.979849809581</v>
+        <v>1091.97984980958</v>
       </c>
     </row>
     <row r="4">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>834.1012987744634</v>
+        <v>834.101298774463</v>
       </c>
       <c r="F4" t="n">
-        <v>834.1012987744634</v>
+        <v>834.101298774463</v>
       </c>
       <c r="G4" t="n">
-        <v>834.1012987744634</v>
+        <v>834.1012987744632</v>
       </c>
       <c r="H4" t="n">
-        <v>834.1012987744634</v>
+        <v>834.1012987744632</v>
       </c>
       <c r="I4" t="n">
-        <v>919.8450529253381</v>
+        <v>919.8450529253377</v>
       </c>
       <c r="J4" t="n">
         <v>1014.896871877666</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.79544305635781</v>
+        <v>46.79544305635784</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.79544305635783</v>
+        <v>46.79544305635788</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>834.1012987744634</v>
+        <v>834.101298774463</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.74375415087468</v>
+        <v>85.74375415087445</v>
       </c>
       <c r="J4" t="n">
-        <v>95.05181895232749</v>
+        <v>95.05181895232795</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>834.1012987744634</v>
+        <v>834.1012987744631</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.79544305635781</v>
+        <v>46.79544305635784</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>834.1012987744634</v>
+        <v>834.101298774463</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="C11" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="D11" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="E11" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="F11" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="G11" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="H11" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="I11" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="T11" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="U11" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="V11" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="W11" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="X11" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="C13" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="D13" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="E13" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="F13" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="G13" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="H13" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="I13" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="J13" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="K13" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="L13" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="M13" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="N13" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="O13" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="P13" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="R13" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="S13" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="T13" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="U13" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="V13" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="W13" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="X13" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.34836421358511</v>
+        <v>26.34836421358519</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="C14" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="D14" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="E14" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="F14" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="G14" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="H14" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="I14" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="T14" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="U14" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="V14" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="W14" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="X14" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="C16" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="D16" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="E16" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="F16" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="G16" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="H16" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="I16" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="J16" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="K16" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="L16" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="M16" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="N16" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="O16" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="P16" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="R16" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="S16" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="T16" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="U16" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="V16" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="W16" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="X16" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.34836421358504</v>
+        <v>26.34836421358512</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="C17" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="D17" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="E17" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="F17" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="G17" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="H17" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="I17" t="n">
-        <v>41.23547485770698</v>
+        <v>41.23547485770703</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="T17" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="U17" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="V17" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="W17" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="X17" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="C19" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="D19" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="E19" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="F19" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="G19" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="H19" t="n">
-        <v>18.48368976887195</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="I19" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="S19" t="n">
-        <v>73.14380726994285</v>
+        <v>18.48368976887059</v>
       </c>
       <c r="T19" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="U19" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="V19" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="W19" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="X19" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="C20" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="D20" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="E20" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="F20" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="G20" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="H20" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="I20" t="n">
-        <v>41.23547485770698</v>
+        <v>41.23547485770703</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="T20" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="U20" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="V20" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="W20" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="X20" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="C22" t="n">
-        <v>18.4836897688719</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="D22" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="E22" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="F22" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="G22" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="H22" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="I22" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="S22" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="T22" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="U22" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="V22" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="W22" t="n">
-        <v>73.14380726994285</v>
+        <v>18.48368976887042</v>
       </c>
       <c r="X22" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="C23" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="D23" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="E23" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="F23" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="G23" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="H23" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="I23" t="n">
-        <v>41.23547485770698</v>
+        <v>41.23547485770703</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="T23" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="U23" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="V23" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="W23" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="X23" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="C25" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="D25" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="E25" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="F25" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="G25" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="H25" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="I25" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="S25" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="T25" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="U25" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="V25" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="W25" t="n">
-        <v>18.48368976887167</v>
+        <v>73.14380726994297</v>
       </c>
       <c r="X25" t="n">
-        <v>73.14380726994285</v>
+        <v>18.48368976887059</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.14380726994285</v>
+        <v>73.14380726994297</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="C26" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="D26" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="E26" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="F26" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="G26" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="H26" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="I26" t="n">
         <v>41.23547485770698</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="T26" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="U26" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="V26" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="W26" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="X26" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="C28" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="D28" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="E28" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="F28" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="G28" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="H28" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="I28" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="J28" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="K28" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="L28" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="M28" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="N28" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="O28" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="P28" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="R28" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="S28" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="T28" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="U28" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="V28" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="W28" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="X28" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635777</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="C29" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="D29" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="E29" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="F29" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="G29" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="H29" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="I29" t="n">
-        <v>41.23547485770698</v>
+        <v>41.23547485770703</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="T29" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="U29" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="V29" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="W29" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="X29" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="C31" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="D31" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="E31" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="F31" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="G31" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="H31" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="I31" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="J31" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="K31" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="L31" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="M31" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="N31" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="O31" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="P31" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="R31" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="S31" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="T31" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="U31" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="V31" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="W31" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="X31" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="C32" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="D32" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="E32" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="F32" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="G32" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="H32" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="I32" t="n">
-        <v>41.23547485770698</v>
+        <v>41.23547485770703</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="T32" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="U32" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="V32" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="W32" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="X32" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="C34" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="D34" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="E34" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="F34" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="G34" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="H34" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="I34" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="J34" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="K34" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="L34" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="M34" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="N34" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="O34" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="P34" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="R34" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="S34" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="T34" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="U34" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="V34" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="W34" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="X34" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.79544305635776</v>
+        <v>46.79544305635783</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="C35" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="D35" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="E35" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="F35" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="G35" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="H35" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="I35" t="n">
-        <v>41.23547485770698</v>
+        <v>41.23547485770703</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="T35" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="U35" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="V35" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="W35" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="X35" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="C37" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="D37" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="E37" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="F37" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="G37" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="H37" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="I37" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="J37" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="K37" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="L37" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="M37" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="N37" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="O37" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="P37" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="R37" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="S37" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="T37" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="U37" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="V37" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="W37" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="X37" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.79544305635777</v>
+        <v>46.7954430563578</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="C38" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="D38" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="E38" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="F38" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="G38" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="H38" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="I38" t="n">
-        <v>41.23547485770698</v>
+        <v>41.23547485770703</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="T38" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="U38" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="V38" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="W38" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="X38" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="C40" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="D40" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="E40" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="F40" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="G40" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="H40" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="I40" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="J40" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="K40" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="L40" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="M40" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="N40" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="O40" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="P40" t="n">
-        <v>46.79544305635787</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="R40" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="S40" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="T40" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="U40" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="V40" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="W40" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="X40" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635778</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="C41" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="D41" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="E41" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="F41" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="G41" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="H41" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="I41" t="n">
-        <v>41.23547485770695</v>
+        <v>41.23547485770703</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="T41" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="U41" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="V41" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="W41" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="X41" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="C43" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="D43" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="E43" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="F43" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="G43" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="H43" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="I43" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="J43" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="K43" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="L43" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="M43" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="N43" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="O43" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="P43" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="R43" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="S43" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="T43" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="U43" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="V43" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="W43" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="X43" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.79544305635775</v>
+        <v>46.79544305635779</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="C44" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="D44" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="E44" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="F44" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="G44" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="H44" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="I44" t="n">
-        <v>41.23547485770695</v>
+        <v>41.23547485770703</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="T44" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="U44" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="V44" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="W44" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="X44" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="C46" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="D46" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="E46" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="F46" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="G46" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="H46" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="I46" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="J46" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="K46" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="L46" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635653</v>
       </c>
       <c r="M46" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="N46" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="O46" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="P46" t="n">
-        <v>46.79544305635685</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="R46" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="S46" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="T46" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="U46" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="V46" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="W46" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="X46" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.79544305635782</v>
+        <v>46.79544305635785</v>
       </c>
     </row>
   </sheetData>
@@ -31300,7 +31300,7 @@
         <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>2.48846056906043</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
         <v>2.123843523123063</v>
@@ -31309,7 +31309,7 @@
         <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>0.9277519194678707</v>
       </c>
       <c r="S5" t="n">
         <v>0.3365553796171231</v>
@@ -31434,10 +31434,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0.006624998659945164</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>0.05890226081296705</v>
       </c>
       <c r="I7" t="n">
         <v>0.1992317778827147</v>
@@ -31449,7 +31449,7 @@
         <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>0.9849566189522113</v>
       </c>
       <c r="M7" t="n">
         <v>1.038498653576677</v>
@@ -31467,13 +31467,13 @@
         <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>0.2978840306553525</v>
       </c>
       <c r="S7" t="n">
         <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>0.02830681245612933</v>
       </c>
       <c r="U7" t="n">
         <v>0.0003613635632697367</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.389868742953084</v>
+        <v>4.389868742953083</v>
       </c>
       <c r="H11" t="n">
-        <v>44.95774326376828</v>
+        <v>44.95774326376827</v>
       </c>
       <c r="I11" t="n">
         <v>169.2404147126989</v>
       </c>
       <c r="J11" t="n">
-        <v>372.5846222222146</v>
+        <v>372.5846222222145</v>
       </c>
       <c r="K11" t="n">
-        <v>558.4077661114188</v>
+        <v>558.4077661114187</v>
       </c>
       <c r="L11" t="n">
-        <v>692.7542116535693</v>
+        <v>692.7542116535692</v>
       </c>
       <c r="M11" t="n">
-        <v>770.8225399110612</v>
+        <v>770.8225399110611</v>
       </c>
       <c r="N11" t="n">
-        <v>783.2952544769768</v>
+        <v>783.2952544769765</v>
       </c>
       <c r="O11" t="n">
-        <v>739.6434971642369</v>
+        <v>739.6434971642368</v>
       </c>
       <c r="P11" t="n">
-        <v>631.2686125725826</v>
+        <v>631.2686125725825</v>
       </c>
       <c r="Q11" t="n">
-        <v>474.0564382155752</v>
+        <v>474.056438215575</v>
       </c>
       <c r="R11" t="n">
-        <v>275.7550924245269</v>
+        <v>275.7550924245268</v>
       </c>
       <c r="S11" t="n">
         <v>100.0341339800435</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.34878684676023</v>
+        <v>2.348786846760229</v>
       </c>
       <c r="H12" t="n">
-        <v>22.68433612528959</v>
+        <v>22.68433612528958</v>
       </c>
       <c r="I12" t="n">
-        <v>80.86831906608687</v>
+        <v>80.86831906608684</v>
       </c>
       <c r="J12" t="n">
         <v>221.9088485353601</v>
@@ -31844,31 +31844,31 @@
         <v>379.2775672682955</v>
       </c>
       <c r="L12" t="n">
-        <v>502.0483530111209</v>
+        <v>509.9854949511629</v>
       </c>
       <c r="M12" t="n">
-        <v>595.1290181462213</v>
+        <v>595.1290181462211</v>
       </c>
       <c r="N12" t="n">
-        <v>610.8803123948898</v>
+        <v>610.8803123948896</v>
       </c>
       <c r="O12" t="n">
-        <v>558.8361406850972</v>
+        <v>550.8989987450553</v>
       </c>
       <c r="P12" t="n">
         <v>448.5152707642407</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.8205806496041</v>
+        <v>299.820580649604</v>
       </c>
       <c r="R12" t="n">
         <v>145.8308184330606</v>
       </c>
       <c r="S12" t="n">
-        <v>43.62768550890161</v>
+        <v>43.62768550890159</v>
       </c>
       <c r="T12" t="n">
-        <v>9.467259263915132</v>
+        <v>9.46725926391513</v>
       </c>
       <c r="U12" t="n">
         <v>0.154525450444752</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.969143991459899</v>
+        <v>1.969143991459898</v>
       </c>
       <c r="H13" t="n">
         <v>17.50748021497984</v>
       </c>
       <c r="I13" t="n">
-        <v>59.21753021590316</v>
+        <v>59.21753021590315</v>
       </c>
       <c r="J13" t="n">
         <v>139.2184801962148</v>
@@ -31923,16 +31923,16 @@
         <v>228.7787291896136</v>
       </c>
       <c r="L13" t="n">
-        <v>292.7580076030472</v>
+        <v>292.7580076030471</v>
       </c>
       <c r="M13" t="n">
-        <v>308.6722713158458</v>
+        <v>308.6722713158457</v>
       </c>
       <c r="N13" t="n">
-        <v>301.3327346204046</v>
+        <v>301.3327346204045</v>
       </c>
       <c r="O13" t="n">
-        <v>278.3295525383502</v>
+        <v>278.3295525383501</v>
       </c>
       <c r="P13" t="n">
         <v>238.159015112568</v>
@@ -31941,13 +31941,13 @@
         <v>164.8889573212466</v>
       </c>
       <c r="R13" t="n">
-        <v>88.53987437964234</v>
+        <v>88.53987437964233</v>
       </c>
       <c r="S13" t="n">
         <v>34.31680937844204</v>
       </c>
       <c r="T13" t="n">
-        <v>8.413615236237748</v>
+        <v>8.413615236237746</v>
       </c>
       <c r="U13" t="n">
         <v>0.107407854079631</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.389868742953084</v>
+        <v>4.389868742953083</v>
       </c>
       <c r="H14" t="n">
-        <v>44.95774326376828</v>
+        <v>44.95774326376827</v>
       </c>
       <c r="I14" t="n">
         <v>169.2404147126989</v>
       </c>
       <c r="J14" t="n">
-        <v>372.5846222222146</v>
+        <v>372.5846222222145</v>
       </c>
       <c r="K14" t="n">
-        <v>558.4077661114188</v>
+        <v>558.4077661114187</v>
       </c>
       <c r="L14" t="n">
-        <v>692.7542116535693</v>
+        <v>692.7542116535692</v>
       </c>
       <c r="M14" t="n">
-        <v>770.8225399110612</v>
+        <v>770.8225399110611</v>
       </c>
       <c r="N14" t="n">
-        <v>783.2952544769768</v>
+        <v>783.2952544769765</v>
       </c>
       <c r="O14" t="n">
-        <v>739.6434971642369</v>
+        <v>739.6434971642368</v>
       </c>
       <c r="P14" t="n">
-        <v>631.2686125725826</v>
+        <v>631.2686125725825</v>
       </c>
       <c r="Q14" t="n">
-        <v>474.0564382155752</v>
+        <v>474.056438215575</v>
       </c>
       <c r="R14" t="n">
-        <v>275.7550924245269</v>
+        <v>275.7550924245268</v>
       </c>
       <c r="S14" t="n">
         <v>100.0341339800435</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.34878684676023</v>
+        <v>2.348786846760229</v>
       </c>
       <c r="H15" t="n">
-        <v>22.68433612528959</v>
+        <v>22.68433612528958</v>
       </c>
       <c r="I15" t="n">
-        <v>80.86831906608687</v>
+        <v>80.86831906608684</v>
       </c>
       <c r="J15" t="n">
         <v>221.9088485353601</v>
@@ -32081,31 +32081,31 @@
         <v>379.2775672682955</v>
       </c>
       <c r="L15" t="n">
-        <v>509.985494951163</v>
+        <v>502.0483530111216</v>
       </c>
       <c r="M15" t="n">
-        <v>595.1290181462213</v>
+        <v>595.1290181462211</v>
       </c>
       <c r="N15" t="n">
-        <v>610.8803123948898</v>
+        <v>610.8803123948896</v>
       </c>
       <c r="O15" t="n">
-        <v>550.8989987450551</v>
+        <v>558.8361406850971</v>
       </c>
       <c r="P15" t="n">
         <v>448.5152707642407</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.8205806496041</v>
+        <v>299.820580649604</v>
       </c>
       <c r="R15" t="n">
         <v>145.8308184330606</v>
       </c>
       <c r="S15" t="n">
-        <v>43.62768550890161</v>
+        <v>43.62768550890159</v>
       </c>
       <c r="T15" t="n">
-        <v>9.467259263915132</v>
+        <v>9.46725926391513</v>
       </c>
       <c r="U15" t="n">
         <v>0.154525450444752</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.969143991459899</v>
+        <v>1.969143991459898</v>
       </c>
       <c r="H16" t="n">
         <v>17.50748021497984</v>
       </c>
       <c r="I16" t="n">
-        <v>59.21753021590316</v>
+        <v>59.21753021590315</v>
       </c>
       <c r="J16" t="n">
         <v>139.2184801962148</v>
@@ -32160,16 +32160,16 @@
         <v>228.7787291896136</v>
       </c>
       <c r="L16" t="n">
-        <v>292.7580076030472</v>
+        <v>292.7580076030471</v>
       </c>
       <c r="M16" t="n">
-        <v>308.6722713158458</v>
+        <v>308.6722713158457</v>
       </c>
       <c r="N16" t="n">
-        <v>301.3327346204046</v>
+        <v>301.3327346204045</v>
       </c>
       <c r="O16" t="n">
-        <v>278.3295525383502</v>
+        <v>278.3295525383501</v>
       </c>
       <c r="P16" t="n">
         <v>238.159015112568</v>
@@ -32178,13 +32178,13 @@
         <v>164.8889573212466</v>
       </c>
       <c r="R16" t="n">
-        <v>88.53987437964234</v>
+        <v>88.53987437964233</v>
       </c>
       <c r="S16" t="n">
         <v>34.31680937844204</v>
       </c>
       <c r="T16" t="n">
-        <v>8.413615236237748</v>
+        <v>8.413615236237746</v>
       </c>
       <c r="U16" t="n">
         <v>0.107407854079631</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.389868742953084</v>
+        <v>4.389868742953083</v>
       </c>
       <c r="H17" t="n">
-        <v>44.95774326376828</v>
+        <v>44.95774326376827</v>
       </c>
       <c r="I17" t="n">
         <v>169.2404147126989</v>
       </c>
       <c r="J17" t="n">
-        <v>372.5846222222146</v>
+        <v>372.5846222222145</v>
       </c>
       <c r="K17" t="n">
-        <v>558.4077661114188</v>
+        <v>558.4077661114187</v>
       </c>
       <c r="L17" t="n">
-        <v>692.7542116535693</v>
+        <v>692.7542116535692</v>
       </c>
       <c r="M17" t="n">
-        <v>770.8225399110612</v>
+        <v>770.8225399110611</v>
       </c>
       <c r="N17" t="n">
-        <v>783.2952544769768</v>
+        <v>783.2952544769765</v>
       </c>
       <c r="O17" t="n">
-        <v>739.6434971642369</v>
+        <v>739.6434971642368</v>
       </c>
       <c r="P17" t="n">
-        <v>631.2686125725826</v>
+        <v>631.2686125725825</v>
       </c>
       <c r="Q17" t="n">
-        <v>474.0564382155752</v>
+        <v>474.056438215575</v>
       </c>
       <c r="R17" t="n">
-        <v>275.7550924245269</v>
+        <v>275.7550924245268</v>
       </c>
       <c r="S17" t="n">
         <v>100.0341339800435</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.34878684676023</v>
+        <v>2.348786846760229</v>
       </c>
       <c r="H18" t="n">
-        <v>22.68433612528959</v>
+        <v>22.68433612528958</v>
       </c>
       <c r="I18" t="n">
-        <v>80.86831906608687</v>
+        <v>80.86831906608684</v>
       </c>
       <c r="J18" t="n">
         <v>221.9088485353601</v>
       </c>
       <c r="K18" t="n">
-        <v>379.2775672682955</v>
+        <v>371.3404253282541</v>
       </c>
       <c r="L18" t="n">
-        <v>509.985494951163</v>
+        <v>509.9854949511629</v>
       </c>
       <c r="M18" t="n">
-        <v>595.1290181462213</v>
+        <v>595.1290181462211</v>
       </c>
       <c r="N18" t="n">
-        <v>610.8803123948898</v>
+        <v>610.8803123948896</v>
       </c>
       <c r="O18" t="n">
-        <v>558.8361406850972</v>
+        <v>558.8361406850971</v>
       </c>
       <c r="P18" t="n">
         <v>448.5152707642407</v>
       </c>
       <c r="Q18" t="n">
-        <v>291.8834387095621</v>
+        <v>299.820580649604</v>
       </c>
       <c r="R18" t="n">
         <v>145.8308184330606</v>
       </c>
       <c r="S18" t="n">
-        <v>43.62768550890161</v>
+        <v>43.62768550890159</v>
       </c>
       <c r="T18" t="n">
-        <v>9.467259263915132</v>
+        <v>9.46725926391513</v>
       </c>
       <c r="U18" t="n">
         <v>0.154525450444752</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.969143991459899</v>
+        <v>1.969143991459898</v>
       </c>
       <c r="H19" t="n">
         <v>17.50748021497984</v>
       </c>
       <c r="I19" t="n">
-        <v>59.21753021590316</v>
+        <v>59.21753021590315</v>
       </c>
       <c r="J19" t="n">
         <v>139.2184801962148</v>
@@ -32397,16 +32397,16 @@
         <v>228.7787291896136</v>
       </c>
       <c r="L19" t="n">
-        <v>292.7580076030472</v>
+        <v>292.7580076030471</v>
       </c>
       <c r="M19" t="n">
-        <v>308.6722713158458</v>
+        <v>308.6722713158457</v>
       </c>
       <c r="N19" t="n">
-        <v>301.3327346204046</v>
+        <v>301.3327346204045</v>
       </c>
       <c r="O19" t="n">
-        <v>278.3295525383502</v>
+        <v>278.3295525383501</v>
       </c>
       <c r="P19" t="n">
         <v>238.159015112568</v>
@@ -32415,13 +32415,13 @@
         <v>164.8889573212466</v>
       </c>
       <c r="R19" t="n">
-        <v>88.53987437964234</v>
+        <v>88.53987437964233</v>
       </c>
       <c r="S19" t="n">
         <v>34.31680937844204</v>
       </c>
       <c r="T19" t="n">
-        <v>8.413615236237748</v>
+        <v>8.413615236237746</v>
       </c>
       <c r="U19" t="n">
         <v>0.107407854079631</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.389868742953084</v>
+        <v>4.389868742953083</v>
       </c>
       <c r="H20" t="n">
-        <v>44.95774326376828</v>
+        <v>44.95774326376827</v>
       </c>
       <c r="I20" t="n">
         <v>169.2404147126989</v>
       </c>
       <c r="J20" t="n">
-        <v>372.5846222222146</v>
+        <v>372.5846222222145</v>
       </c>
       <c r="K20" t="n">
-        <v>558.4077661114188</v>
+        <v>558.4077661114187</v>
       </c>
       <c r="L20" t="n">
-        <v>692.7542116535693</v>
+        <v>692.7542116535692</v>
       </c>
       <c r="M20" t="n">
-        <v>770.8225399110612</v>
+        <v>770.8225399110611</v>
       </c>
       <c r="N20" t="n">
-        <v>783.2952544769768</v>
+        <v>783.2952544769765</v>
       </c>
       <c r="O20" t="n">
-        <v>739.6434971642369</v>
+        <v>739.6434971642368</v>
       </c>
       <c r="P20" t="n">
-        <v>631.2686125725826</v>
+        <v>631.2686125725825</v>
       </c>
       <c r="Q20" t="n">
-        <v>474.0564382155752</v>
+        <v>474.056438215575</v>
       </c>
       <c r="R20" t="n">
-        <v>275.7550924245269</v>
+        <v>275.7550924245268</v>
       </c>
       <c r="S20" t="n">
         <v>100.0341339800435</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.34878684676023</v>
+        <v>2.348786846760229</v>
       </c>
       <c r="H21" t="n">
-        <v>22.68433612528959</v>
+        <v>22.68433612528958</v>
       </c>
       <c r="I21" t="n">
-        <v>80.86831906608687</v>
+        <v>80.86831906608684</v>
       </c>
       <c r="J21" t="n">
-        <v>221.9088485353601</v>
+        <v>213.9717065953187</v>
       </c>
       <c r="K21" t="n">
         <v>379.2775672682955</v>
       </c>
       <c r="L21" t="n">
-        <v>502.0483530111209</v>
+        <v>509.9854949511629</v>
       </c>
       <c r="M21" t="n">
-        <v>595.1290181462213</v>
+        <v>595.1290181462211</v>
       </c>
       <c r="N21" t="n">
-        <v>610.8803123948898</v>
+        <v>610.8803123948896</v>
       </c>
       <c r="O21" t="n">
-        <v>558.8361406850972</v>
+        <v>558.8361406850971</v>
       </c>
       <c r="P21" t="n">
         <v>448.5152707642407</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.8205806496041</v>
+        <v>299.820580649604</v>
       </c>
       <c r="R21" t="n">
         <v>145.8308184330606</v>
       </c>
       <c r="S21" t="n">
-        <v>43.62768550890161</v>
+        <v>43.62768550890159</v>
       </c>
       <c r="T21" t="n">
-        <v>9.467259263915132</v>
+        <v>9.46725926391513</v>
       </c>
       <c r="U21" t="n">
         <v>0.154525450444752</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.969143991459899</v>
+        <v>1.969143991459898</v>
       </c>
       <c r="H22" t="n">
         <v>17.50748021497984</v>
       </c>
       <c r="I22" t="n">
-        <v>59.21753021590316</v>
+        <v>59.21753021590315</v>
       </c>
       <c r="J22" t="n">
         <v>139.2184801962148</v>
@@ -32634,16 +32634,16 @@
         <v>228.7787291896136</v>
       </c>
       <c r="L22" t="n">
-        <v>292.7580076030472</v>
+        <v>292.7580076030471</v>
       </c>
       <c r="M22" t="n">
-        <v>308.6722713158458</v>
+        <v>308.6722713158457</v>
       </c>
       <c r="N22" t="n">
-        <v>301.3327346204046</v>
+        <v>301.3327346204045</v>
       </c>
       <c r="O22" t="n">
-        <v>278.3295525383502</v>
+        <v>278.3295525383501</v>
       </c>
       <c r="P22" t="n">
         <v>238.159015112568</v>
@@ -32652,13 +32652,13 @@
         <v>164.8889573212466</v>
       </c>
       <c r="R22" t="n">
-        <v>88.53987437964234</v>
+        <v>88.53987437964233</v>
       </c>
       <c r="S22" t="n">
         <v>34.31680937844204</v>
       </c>
       <c r="T22" t="n">
-        <v>8.413615236237748</v>
+        <v>8.413615236237746</v>
       </c>
       <c r="U22" t="n">
         <v>0.107407854079631</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.389868742953084</v>
+        <v>4.389868742953083</v>
       </c>
       <c r="H23" t="n">
-        <v>44.95774326376828</v>
+        <v>44.95774326376827</v>
       </c>
       <c r="I23" t="n">
         <v>169.2404147126989</v>
       </c>
       <c r="J23" t="n">
-        <v>372.5846222222146</v>
+        <v>372.5846222222145</v>
       </c>
       <c r="K23" t="n">
-        <v>558.4077661114188</v>
+        <v>558.4077661114187</v>
       </c>
       <c r="L23" t="n">
-        <v>692.7542116535693</v>
+        <v>692.7542116535692</v>
       </c>
       <c r="M23" t="n">
-        <v>770.8225399110612</v>
+        <v>770.8225399110611</v>
       </c>
       <c r="N23" t="n">
-        <v>783.2952544769768</v>
+        <v>783.2952544769765</v>
       </c>
       <c r="O23" t="n">
-        <v>739.6434971642369</v>
+        <v>739.6434971642368</v>
       </c>
       <c r="P23" t="n">
-        <v>631.2686125725826</v>
+        <v>631.2686125725825</v>
       </c>
       <c r="Q23" t="n">
-        <v>474.0564382155752</v>
+        <v>474.056438215575</v>
       </c>
       <c r="R23" t="n">
-        <v>275.7550924245269</v>
+        <v>275.7550924245268</v>
       </c>
       <c r="S23" t="n">
         <v>100.0341339800435</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.34878684676023</v>
+        <v>2.348786846760229</v>
       </c>
       <c r="H24" t="n">
-        <v>22.68433612528959</v>
+        <v>22.68433612528958</v>
       </c>
       <c r="I24" t="n">
-        <v>80.86831906608687</v>
+        <v>80.86831906608684</v>
       </c>
       <c r="J24" t="n">
         <v>221.9088485353601</v>
@@ -32792,31 +32792,31 @@
         <v>379.2775672682955</v>
       </c>
       <c r="L24" t="n">
-        <v>509.985494951163</v>
+        <v>509.9854949511629</v>
       </c>
       <c r="M24" t="n">
-        <v>595.1290181462213</v>
+        <v>595.1290181462211</v>
       </c>
       <c r="N24" t="n">
-        <v>610.8803123948898</v>
+        <v>610.8803123948896</v>
       </c>
       <c r="O24" t="n">
-        <v>550.8989987450551</v>
+        <v>558.8361406850971</v>
       </c>
       <c r="P24" t="n">
-        <v>448.5152707642407</v>
+        <v>440.5781288241994</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.8205806496041</v>
+        <v>299.820580649604</v>
       </c>
       <c r="R24" t="n">
         <v>145.8308184330606</v>
       </c>
       <c r="S24" t="n">
-        <v>43.62768550890161</v>
+        <v>43.62768550890159</v>
       </c>
       <c r="T24" t="n">
-        <v>9.467259263915132</v>
+        <v>9.46725926391513</v>
       </c>
       <c r="U24" t="n">
         <v>0.154525450444752</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.969143991459899</v>
+        <v>1.969143991459898</v>
       </c>
       <c r="H25" t="n">
         <v>17.50748021497984</v>
       </c>
       <c r="I25" t="n">
-        <v>59.21753021590316</v>
+        <v>59.21753021590315</v>
       </c>
       <c r="J25" t="n">
         <v>139.2184801962148</v>
@@ -32871,16 +32871,16 @@
         <v>228.7787291896136</v>
       </c>
       <c r="L25" t="n">
-        <v>292.7580076030472</v>
+        <v>292.7580076030471</v>
       </c>
       <c r="M25" t="n">
-        <v>308.6722713158458</v>
+        <v>308.6722713158457</v>
       </c>
       <c r="N25" t="n">
-        <v>301.3327346204046</v>
+        <v>301.3327346204045</v>
       </c>
       <c r="O25" t="n">
-        <v>278.3295525383502</v>
+        <v>278.3295525383501</v>
       </c>
       <c r="P25" t="n">
         <v>238.159015112568</v>
@@ -32889,13 +32889,13 @@
         <v>164.8889573212466</v>
       </c>
       <c r="R25" t="n">
-        <v>88.53987437964234</v>
+        <v>88.53987437964233</v>
       </c>
       <c r="S25" t="n">
         <v>34.31680937844204</v>
       </c>
       <c r="T25" t="n">
-        <v>8.413615236237748</v>
+        <v>8.413615236237746</v>
       </c>
       <c r="U25" t="n">
         <v>0.107407854079631</v>
@@ -33038,13 +33038,13 @@
         <v>610.8803123948898</v>
       </c>
       <c r="O27" t="n">
-        <v>550.8989987450551</v>
+        <v>558.8361406850972</v>
       </c>
       <c r="P27" t="n">
         <v>448.5152707642407</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.8205806496041</v>
+        <v>291.8834387095621</v>
       </c>
       <c r="R27" t="n">
         <v>145.8308184330606</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.389868742953084</v>
+        <v>4.389868742953083</v>
       </c>
       <c r="H29" t="n">
-        <v>44.95774326376828</v>
+        <v>44.95774326376827</v>
       </c>
       <c r="I29" t="n">
         <v>169.2404147126989</v>
       </c>
       <c r="J29" t="n">
-        <v>372.5846222222146</v>
+        <v>372.5846222222145</v>
       </c>
       <c r="K29" t="n">
-        <v>558.4077661114188</v>
+        <v>558.4077661114187</v>
       </c>
       <c r="L29" t="n">
-        <v>692.7542116535693</v>
+        <v>692.7542116535692</v>
       </c>
       <c r="M29" t="n">
-        <v>770.8225399110612</v>
+        <v>770.8225399110611</v>
       </c>
       <c r="N29" t="n">
-        <v>783.2952544769768</v>
+        <v>783.2952544769765</v>
       </c>
       <c r="O29" t="n">
-        <v>739.6434971642369</v>
+        <v>739.6434971642368</v>
       </c>
       <c r="P29" t="n">
-        <v>631.2686125725826</v>
+        <v>631.2686125725825</v>
       </c>
       <c r="Q29" t="n">
-        <v>474.0564382155752</v>
+        <v>474.056438215575</v>
       </c>
       <c r="R29" t="n">
-        <v>275.7550924245269</v>
+        <v>275.7550924245268</v>
       </c>
       <c r="S29" t="n">
         <v>100.0341339800435</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.34878684676023</v>
+        <v>2.348786846760229</v>
       </c>
       <c r="H30" t="n">
-        <v>22.68433612528959</v>
+        <v>22.68433612528958</v>
       </c>
       <c r="I30" t="n">
-        <v>80.86831906608687</v>
+        <v>80.86831906608684</v>
       </c>
       <c r="J30" t="n">
-        <v>213.9717065953182</v>
+        <v>221.9088485353601</v>
       </c>
       <c r="K30" t="n">
         <v>379.2775672682955</v>
       </c>
       <c r="L30" t="n">
-        <v>509.985494951163</v>
+        <v>502.0483530111218</v>
       </c>
       <c r="M30" t="n">
-        <v>595.1290181462213</v>
+        <v>595.1290181462211</v>
       </c>
       <c r="N30" t="n">
-        <v>610.8803123948898</v>
+        <v>610.8803123948896</v>
       </c>
       <c r="O30" t="n">
-        <v>558.8361406850972</v>
+        <v>558.8361406850971</v>
       </c>
       <c r="P30" t="n">
         <v>448.5152707642407</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.8205806496041</v>
+        <v>299.820580649604</v>
       </c>
       <c r="R30" t="n">
         <v>145.8308184330606</v>
       </c>
       <c r="S30" t="n">
-        <v>43.62768550890161</v>
+        <v>43.62768550890159</v>
       </c>
       <c r="T30" t="n">
-        <v>9.467259263915132</v>
+        <v>9.46725926391513</v>
       </c>
       <c r="U30" t="n">
         <v>0.154525450444752</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.969143991459899</v>
+        <v>1.969143991459898</v>
       </c>
       <c r="H31" t="n">
         <v>17.50748021497984</v>
       </c>
       <c r="I31" t="n">
-        <v>59.21753021590316</v>
+        <v>59.21753021590315</v>
       </c>
       <c r="J31" t="n">
         <v>139.2184801962148</v>
@@ -33345,16 +33345,16 @@
         <v>228.7787291896136</v>
       </c>
       <c r="L31" t="n">
-        <v>292.7580076030472</v>
+        <v>292.7580076030471</v>
       </c>
       <c r="M31" t="n">
-        <v>308.6722713158458</v>
+        <v>308.6722713158457</v>
       </c>
       <c r="N31" t="n">
-        <v>301.3327346204046</v>
+        <v>301.3327346204045</v>
       </c>
       <c r="O31" t="n">
-        <v>278.3295525383502</v>
+        <v>278.3295525383501</v>
       </c>
       <c r="P31" t="n">
         <v>238.159015112568</v>
@@ -33363,13 +33363,13 @@
         <v>164.8889573212466</v>
       </c>
       <c r="R31" t="n">
-        <v>88.53987437964234</v>
+        <v>88.53987437964233</v>
       </c>
       <c r="S31" t="n">
         <v>34.31680937844204</v>
       </c>
       <c r="T31" t="n">
-        <v>8.413615236237748</v>
+        <v>8.413615236237746</v>
       </c>
       <c r="U31" t="n">
         <v>0.107407854079631</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.389868742953084</v>
+        <v>4.389868742953083</v>
       </c>
       <c r="H32" t="n">
-        <v>44.95774326376828</v>
+        <v>44.95774326376827</v>
       </c>
       <c r="I32" t="n">
         <v>169.2404147126989</v>
       </c>
       <c r="J32" t="n">
-        <v>372.5846222222146</v>
+        <v>372.5846222222145</v>
       </c>
       <c r="K32" t="n">
-        <v>558.4077661114188</v>
+        <v>558.4077661114187</v>
       </c>
       <c r="L32" t="n">
-        <v>692.7542116535693</v>
+        <v>692.7542116535692</v>
       </c>
       <c r="M32" t="n">
-        <v>770.8225399110612</v>
+        <v>770.8225399110611</v>
       </c>
       <c r="N32" t="n">
-        <v>783.2952544769768</v>
+        <v>783.2952544769765</v>
       </c>
       <c r="O32" t="n">
-        <v>739.6434971642369</v>
+        <v>739.6434971642368</v>
       </c>
       <c r="P32" t="n">
-        <v>631.2686125725826</v>
+        <v>631.2686125725825</v>
       </c>
       <c r="Q32" t="n">
-        <v>474.0564382155752</v>
+        <v>474.056438215575</v>
       </c>
       <c r="R32" t="n">
-        <v>275.7550924245269</v>
+        <v>275.7550924245268</v>
       </c>
       <c r="S32" t="n">
         <v>100.0341339800435</v>
@@ -33488,13 +33488,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.34878684676023</v>
+        <v>2.348786846760229</v>
       </c>
       <c r="H33" t="n">
-        <v>22.68433612528959</v>
+        <v>22.68433612528958</v>
       </c>
       <c r="I33" t="n">
-        <v>80.86831906608687</v>
+        <v>80.86831906608684</v>
       </c>
       <c r="J33" t="n">
         <v>221.9088485353601</v>
@@ -33503,31 +33503,31 @@
         <v>379.2775672682955</v>
       </c>
       <c r="L33" t="n">
-        <v>509.985494951163</v>
+        <v>509.9854949511629</v>
       </c>
       <c r="M33" t="n">
-        <v>595.1290181462213</v>
+        <v>595.1290181462211</v>
       </c>
       <c r="N33" t="n">
-        <v>602.9431704548476</v>
+        <v>610.8803123948896</v>
       </c>
       <c r="O33" t="n">
-        <v>558.8361406850972</v>
+        <v>558.8361406850971</v>
       </c>
       <c r="P33" t="n">
         <v>448.5152707642407</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.8205806496041</v>
+        <v>291.8834387095631</v>
       </c>
       <c r="R33" t="n">
         <v>145.8308184330606</v>
       </c>
       <c r="S33" t="n">
-        <v>43.62768550890161</v>
+        <v>43.62768550890159</v>
       </c>
       <c r="T33" t="n">
-        <v>9.467259263915132</v>
+        <v>9.46725926391513</v>
       </c>
       <c r="U33" t="n">
         <v>0.154525450444752</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.969143991459899</v>
+        <v>1.969143991459898</v>
       </c>
       <c r="H34" t="n">
         <v>17.50748021497984</v>
       </c>
       <c r="I34" t="n">
-        <v>59.21753021590316</v>
+        <v>59.21753021590315</v>
       </c>
       <c r="J34" t="n">
         <v>139.2184801962148</v>
@@ -33582,16 +33582,16 @@
         <v>228.7787291896136</v>
       </c>
       <c r="L34" t="n">
-        <v>292.7580076030472</v>
+        <v>292.7580076030471</v>
       </c>
       <c r="M34" t="n">
-        <v>308.6722713158458</v>
+        <v>308.6722713158457</v>
       </c>
       <c r="N34" t="n">
-        <v>301.3327346204046</v>
+        <v>301.3327346204045</v>
       </c>
       <c r="O34" t="n">
-        <v>278.3295525383502</v>
+        <v>278.3295525383501</v>
       </c>
       <c r="P34" t="n">
         <v>238.159015112568</v>
@@ -33600,13 +33600,13 @@
         <v>164.8889573212466</v>
       </c>
       <c r="R34" t="n">
-        <v>88.53987437964234</v>
+        <v>88.53987437964233</v>
       </c>
       <c r="S34" t="n">
         <v>34.31680937844204</v>
       </c>
       <c r="T34" t="n">
-        <v>8.413615236237748</v>
+        <v>8.413615236237746</v>
       </c>
       <c r="U34" t="n">
         <v>0.107407854079631</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.389868742953084</v>
+        <v>4.389868742953083</v>
       </c>
       <c r="H35" t="n">
-        <v>44.95774326376828</v>
+        <v>44.95774326376827</v>
       </c>
       <c r="I35" t="n">
         <v>169.2404147126989</v>
       </c>
       <c r="J35" t="n">
-        <v>372.5846222222146</v>
+        <v>372.5846222222145</v>
       </c>
       <c r="K35" t="n">
-        <v>558.4077661114188</v>
+        <v>558.4077661114187</v>
       </c>
       <c r="L35" t="n">
-        <v>692.7542116535693</v>
+        <v>692.7542116535692</v>
       </c>
       <c r="M35" t="n">
-        <v>770.8225399110612</v>
+        <v>770.8225399110611</v>
       </c>
       <c r="N35" t="n">
-        <v>783.2952544769768</v>
+        <v>783.2952544769765</v>
       </c>
       <c r="O35" t="n">
-        <v>739.6434971642369</v>
+        <v>739.6434971642368</v>
       </c>
       <c r="P35" t="n">
-        <v>631.2686125725826</v>
+        <v>631.2686125725825</v>
       </c>
       <c r="Q35" t="n">
-        <v>474.0564382155752</v>
+        <v>474.056438215575</v>
       </c>
       <c r="R35" t="n">
-        <v>275.7550924245269</v>
+        <v>275.7550924245268</v>
       </c>
       <c r="S35" t="n">
         <v>100.0341339800435</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.34878684676023</v>
+        <v>2.348786846760229</v>
       </c>
       <c r="H36" t="n">
-        <v>22.68433612528959</v>
+        <v>22.68433612528958</v>
       </c>
       <c r="I36" t="n">
-        <v>80.86831906608687</v>
+        <v>80.86831906608684</v>
       </c>
       <c r="J36" t="n">
         <v>221.9088485353601</v>
@@ -33740,31 +33740,31 @@
         <v>379.2775672682955</v>
       </c>
       <c r="L36" t="n">
-        <v>509.985494951163</v>
+        <v>502.0483530111218</v>
       </c>
       <c r="M36" t="n">
-        <v>595.1290181462213</v>
+        <v>595.1290181462211</v>
       </c>
       <c r="N36" t="n">
-        <v>610.8803123948898</v>
+        <v>610.8803123948896</v>
       </c>
       <c r="O36" t="n">
-        <v>550.8989987450551</v>
+        <v>558.8361406850971</v>
       </c>
       <c r="P36" t="n">
         <v>448.5152707642407</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.8205806496041</v>
+        <v>299.820580649604</v>
       </c>
       <c r="R36" t="n">
         <v>145.8308184330606</v>
       </c>
       <c r="S36" t="n">
-        <v>43.62768550890161</v>
+        <v>43.62768550890159</v>
       </c>
       <c r="T36" t="n">
-        <v>9.467259263915132</v>
+        <v>9.46725926391513</v>
       </c>
       <c r="U36" t="n">
         <v>0.154525450444752</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.969143991459899</v>
+        <v>1.969143991459898</v>
       </c>
       <c r="H37" t="n">
         <v>17.50748021497984</v>
       </c>
       <c r="I37" t="n">
-        <v>59.21753021590316</v>
+        <v>59.21753021590315</v>
       </c>
       <c r="J37" t="n">
         <v>139.2184801962148</v>
@@ -33819,16 +33819,16 @@
         <v>228.7787291896136</v>
       </c>
       <c r="L37" t="n">
-        <v>292.7580076030472</v>
+        <v>292.7580076030471</v>
       </c>
       <c r="M37" t="n">
-        <v>308.6722713158458</v>
+        <v>308.6722713158457</v>
       </c>
       <c r="N37" t="n">
-        <v>301.3327346204046</v>
+        <v>301.3327346204045</v>
       </c>
       <c r="O37" t="n">
-        <v>278.3295525383502</v>
+        <v>278.3295525383501</v>
       </c>
       <c r="P37" t="n">
         <v>238.159015112568</v>
@@ -33837,13 +33837,13 @@
         <v>164.8889573212466</v>
       </c>
       <c r="R37" t="n">
-        <v>88.53987437964234</v>
+        <v>88.53987437964233</v>
       </c>
       <c r="S37" t="n">
         <v>34.31680937844204</v>
       </c>
       <c r="T37" t="n">
-        <v>8.413615236237748</v>
+        <v>8.413615236237746</v>
       </c>
       <c r="U37" t="n">
         <v>0.107407854079631</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.389868742953084</v>
+        <v>4.389868742953083</v>
       </c>
       <c r="H38" t="n">
-        <v>44.95774326376828</v>
+        <v>44.95774326376827</v>
       </c>
       <c r="I38" t="n">
         <v>169.2404147126989</v>
       </c>
       <c r="J38" t="n">
-        <v>372.5846222222146</v>
+        <v>372.5846222222145</v>
       </c>
       <c r="K38" t="n">
-        <v>558.4077661114188</v>
+        <v>558.4077661114187</v>
       </c>
       <c r="L38" t="n">
-        <v>692.7542116535693</v>
+        <v>692.7542116535692</v>
       </c>
       <c r="M38" t="n">
-        <v>770.8225399110612</v>
+        <v>770.8225399110611</v>
       </c>
       <c r="N38" t="n">
-        <v>783.2952544769768</v>
+        <v>783.2952544769765</v>
       </c>
       <c r="O38" t="n">
-        <v>739.6434971642369</v>
+        <v>739.6434971642368</v>
       </c>
       <c r="P38" t="n">
-        <v>631.2686125725826</v>
+        <v>631.2686125725825</v>
       </c>
       <c r="Q38" t="n">
-        <v>474.0564382155752</v>
+        <v>474.056438215575</v>
       </c>
       <c r="R38" t="n">
-        <v>275.7550924245269</v>
+        <v>275.7550924245268</v>
       </c>
       <c r="S38" t="n">
         <v>100.0341339800435</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.34878684676023</v>
+        <v>2.348786846760229</v>
       </c>
       <c r="H39" t="n">
-        <v>22.68433612528959</v>
+        <v>22.68433612528958</v>
       </c>
       <c r="I39" t="n">
-        <v>80.86831906608687</v>
+        <v>80.86831906608684</v>
       </c>
       <c r="J39" t="n">
-        <v>221.9088485353601</v>
+        <v>213.971706595319</v>
       </c>
       <c r="K39" t="n">
         <v>379.2775672682955</v>
       </c>
       <c r="L39" t="n">
-        <v>509.985494951163</v>
+        <v>509.9854949511629</v>
       </c>
       <c r="M39" t="n">
-        <v>595.1290181462213</v>
+        <v>595.1290181462211</v>
       </c>
       <c r="N39" t="n">
-        <v>610.8803123948898</v>
+        <v>610.8803123948896</v>
       </c>
       <c r="O39" t="n">
-        <v>558.8361406850972</v>
+        <v>558.8361406850971</v>
       </c>
       <c r="P39" t="n">
         <v>448.5152707642407</v>
       </c>
       <c r="Q39" t="n">
-        <v>291.8834387095625</v>
+        <v>299.820580649604</v>
       </c>
       <c r="R39" t="n">
         <v>145.8308184330606</v>
       </c>
       <c r="S39" t="n">
-        <v>43.62768550890161</v>
+        <v>43.62768550890159</v>
       </c>
       <c r="T39" t="n">
-        <v>9.467259263915132</v>
+        <v>9.46725926391513</v>
       </c>
       <c r="U39" t="n">
         <v>0.154525450444752</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.969143991459899</v>
+        <v>1.969143991459898</v>
       </c>
       <c r="H40" t="n">
         <v>17.50748021497984</v>
       </c>
       <c r="I40" t="n">
-        <v>59.21753021590316</v>
+        <v>59.21753021590315</v>
       </c>
       <c r="J40" t="n">
         <v>139.2184801962148</v>
@@ -34056,16 +34056,16 @@
         <v>228.7787291896136</v>
       </c>
       <c r="L40" t="n">
-        <v>292.7580076030472</v>
+        <v>292.7580076030471</v>
       </c>
       <c r="M40" t="n">
-        <v>308.6722713158458</v>
+        <v>308.6722713158457</v>
       </c>
       <c r="N40" t="n">
-        <v>301.3327346204046</v>
+        <v>301.3327346204045</v>
       </c>
       <c r="O40" t="n">
-        <v>278.3295525383502</v>
+        <v>278.3295525383501</v>
       </c>
       <c r="P40" t="n">
         <v>238.159015112568</v>
@@ -34074,13 +34074,13 @@
         <v>164.8889573212466</v>
       </c>
       <c r="R40" t="n">
-        <v>88.53987437964234</v>
+        <v>88.53987437964233</v>
       </c>
       <c r="S40" t="n">
         <v>34.31680937844204</v>
       </c>
       <c r="T40" t="n">
-        <v>8.413615236237748</v>
+        <v>8.413615236237746</v>
       </c>
       <c r="U40" t="n">
         <v>0.107407854079631</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.389868742953085</v>
+        <v>4.389868742953083</v>
       </c>
       <c r="H41" t="n">
-        <v>44.95774326376829</v>
+        <v>44.95774326376827</v>
       </c>
       <c r="I41" t="n">
-        <v>169.240414712699</v>
+        <v>169.2404147126989</v>
       </c>
       <c r="J41" t="n">
-        <v>372.5846222222147</v>
+        <v>372.5846222222145</v>
       </c>
       <c r="K41" t="n">
-        <v>558.4077661114189</v>
+        <v>558.4077661114187</v>
       </c>
       <c r="L41" t="n">
-        <v>692.7542116535695</v>
+        <v>692.7542116535692</v>
       </c>
       <c r="M41" t="n">
-        <v>770.8225399110614</v>
+        <v>770.8225399110611</v>
       </c>
       <c r="N41" t="n">
-        <v>783.2952544769769</v>
+        <v>783.2952544769765</v>
       </c>
       <c r="O41" t="n">
-        <v>739.6434971642371</v>
+        <v>739.6434971642368</v>
       </c>
       <c r="P41" t="n">
-        <v>631.2686125725827</v>
+        <v>631.2686125725825</v>
       </c>
       <c r="Q41" t="n">
-        <v>474.0564382155753</v>
+        <v>474.056438215575</v>
       </c>
       <c r="R41" t="n">
-        <v>275.7550924245269</v>
+        <v>275.7550924245268</v>
       </c>
       <c r="S41" t="n">
         <v>100.0341339800435</v>
       </c>
       <c r="T41" t="n">
-        <v>19.21665042227714</v>
+        <v>19.21665042227713</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3511894994362467</v>
+        <v>0.3511894994362466</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.34878684676023</v>
+        <v>2.348786846760229</v>
       </c>
       <c r="H42" t="n">
-        <v>22.68433612528959</v>
+        <v>22.68433612528958</v>
       </c>
       <c r="I42" t="n">
-        <v>80.86831906608688</v>
+        <v>80.86831906608684</v>
       </c>
       <c r="J42" t="n">
-        <v>213.9717065953171</v>
+        <v>221.9088485353601</v>
       </c>
       <c r="K42" t="n">
-        <v>379.2775672682956</v>
+        <v>379.2775672682955</v>
       </c>
       <c r="L42" t="n">
-        <v>509.9854949511632</v>
+        <v>509.9854949511629</v>
       </c>
       <c r="M42" t="n">
-        <v>595.1290181462214</v>
+        <v>587.1918762061799</v>
       </c>
       <c r="N42" t="n">
-        <v>610.8803123948899</v>
+        <v>610.8803123948896</v>
       </c>
       <c r="O42" t="n">
-        <v>558.8361406850973</v>
+        <v>558.8361406850971</v>
       </c>
       <c r="P42" t="n">
-        <v>448.5152707642408</v>
+        <v>448.5152707642407</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.8205806496042</v>
+        <v>299.820580649604</v>
       </c>
       <c r="R42" t="n">
-        <v>145.8308184330607</v>
+        <v>145.8308184330606</v>
       </c>
       <c r="S42" t="n">
-        <v>43.62768550890161</v>
+        <v>43.62768550890159</v>
       </c>
       <c r="T42" t="n">
-        <v>9.467259263915134</v>
+        <v>9.46725926391513</v>
       </c>
       <c r="U42" t="n">
         <v>0.154525450444752</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.969143991459899</v>
+        <v>1.969143991459898</v>
       </c>
       <c r="H43" t="n">
         <v>17.50748021497984</v>
       </c>
       <c r="I43" t="n">
-        <v>59.21753021590317</v>
+        <v>59.21753021590315</v>
       </c>
       <c r="J43" t="n">
-        <v>139.2184801962149</v>
+        <v>139.2184801962148</v>
       </c>
       <c r="K43" t="n">
-        <v>228.7787291896137</v>
+        <v>228.7787291896136</v>
       </c>
       <c r="L43" t="n">
-        <v>292.7580076030472</v>
+        <v>292.7580076030471</v>
       </c>
       <c r="M43" t="n">
-        <v>308.6722713158458</v>
+        <v>308.6722713158457</v>
       </c>
       <c r="N43" t="n">
-        <v>301.3327346204046</v>
+        <v>301.3327346204045</v>
       </c>
       <c r="O43" t="n">
-        <v>278.3295525383502</v>
+        <v>278.3295525383501</v>
       </c>
       <c r="P43" t="n">
-        <v>238.1590151125681</v>
+        <v>238.159015112568</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.8889573212467</v>
+        <v>164.8889573212466</v>
       </c>
       <c r="R43" t="n">
-        <v>88.53987437964236</v>
+        <v>88.53987437964233</v>
       </c>
       <c r="S43" t="n">
-        <v>34.31680937844205</v>
+        <v>34.31680937844204</v>
       </c>
       <c r="T43" t="n">
-        <v>8.413615236237749</v>
+        <v>8.413615236237746</v>
       </c>
       <c r="U43" t="n">
         <v>0.107407854079631</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.389868742953085</v>
+        <v>4.389868742953083</v>
       </c>
       <c r="H44" t="n">
-        <v>44.95774326376829</v>
+        <v>44.95774326376827</v>
       </c>
       <c r="I44" t="n">
-        <v>169.240414712699</v>
+        <v>169.2404147126989</v>
       </c>
       <c r="J44" t="n">
-        <v>372.5846222222147</v>
+        <v>372.5846222222145</v>
       </c>
       <c r="K44" t="n">
-        <v>558.4077661114189</v>
+        <v>558.4077661114187</v>
       </c>
       <c r="L44" t="n">
-        <v>692.7542116535695</v>
+        <v>692.7542116535692</v>
       </c>
       <c r="M44" t="n">
-        <v>770.8225399110614</v>
+        <v>770.8225399110611</v>
       </c>
       <c r="N44" t="n">
-        <v>783.2952544769769</v>
+        <v>783.2952544769765</v>
       </c>
       <c r="O44" t="n">
-        <v>739.6434971642371</v>
+        <v>739.6434971642368</v>
       </c>
       <c r="P44" t="n">
-        <v>631.2686125725827</v>
+        <v>631.2686125725825</v>
       </c>
       <c r="Q44" t="n">
-        <v>474.0564382155753</v>
+        <v>474.056438215575</v>
       </c>
       <c r="R44" t="n">
-        <v>275.7550924245269</v>
+        <v>275.7550924245268</v>
       </c>
       <c r="S44" t="n">
         <v>100.0341339800435</v>
       </c>
       <c r="T44" t="n">
-        <v>19.21665042227714</v>
+        <v>19.21665042227713</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3511894994362467</v>
+        <v>0.3511894994362466</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.34878684676023</v>
+        <v>2.348786846760229</v>
       </c>
       <c r="H45" t="n">
-        <v>22.68433612528959</v>
+        <v>22.68433612528958</v>
       </c>
       <c r="I45" t="n">
-        <v>80.86831906608688</v>
+        <v>80.86831906608684</v>
       </c>
       <c r="J45" t="n">
-        <v>221.9088485353602</v>
+        <v>221.9088485353601</v>
       </c>
       <c r="K45" t="n">
-        <v>379.2775672682956</v>
+        <v>379.2775672682955</v>
       </c>
       <c r="L45" t="n">
-        <v>509.9854949511632</v>
+        <v>502.0483530111218</v>
       </c>
       <c r="M45" t="n">
-        <v>595.1290181462214</v>
+        <v>595.1290181462211</v>
       </c>
       <c r="N45" t="n">
-        <v>610.8803123948899</v>
+        <v>610.8803123948896</v>
       </c>
       <c r="O45" t="n">
-        <v>550.8989987450544</v>
+        <v>558.8361406850971</v>
       </c>
       <c r="P45" t="n">
-        <v>448.5152707642408</v>
+        <v>448.5152707642407</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.8205806496042</v>
+        <v>299.820580649604</v>
       </c>
       <c r="R45" t="n">
-        <v>145.8308184330607</v>
+        <v>145.8308184330606</v>
       </c>
       <c r="S45" t="n">
-        <v>43.62768550890161</v>
+        <v>43.62768550890159</v>
       </c>
       <c r="T45" t="n">
-        <v>9.467259263915134</v>
+        <v>9.46725926391513</v>
       </c>
       <c r="U45" t="n">
         <v>0.154525450444752</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.969143991459899</v>
+        <v>1.969143991459898</v>
       </c>
       <c r="H46" t="n">
         <v>17.50748021497984</v>
       </c>
       <c r="I46" t="n">
-        <v>59.21753021590317</v>
+        <v>59.21753021590315</v>
       </c>
       <c r="J46" t="n">
-        <v>139.2184801962149</v>
+        <v>139.2184801962148</v>
       </c>
       <c r="K46" t="n">
-        <v>228.7787291896137</v>
+        <v>228.7787291896136</v>
       </c>
       <c r="L46" t="n">
-        <v>292.7580076030472</v>
+        <v>292.7580076030471</v>
       </c>
       <c r="M46" t="n">
-        <v>308.6722713158458</v>
+        <v>308.6722713158457</v>
       </c>
       <c r="N46" t="n">
-        <v>301.3327346204046</v>
+        <v>301.3327346204045</v>
       </c>
       <c r="O46" t="n">
-        <v>278.3295525383502</v>
+        <v>278.3295525383501</v>
       </c>
       <c r="P46" t="n">
-        <v>238.1590151125681</v>
+        <v>238.159015112568</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.8889573212467</v>
+        <v>164.8889573212466</v>
       </c>
       <c r="R46" t="n">
-        <v>88.53987437964236</v>
+        <v>88.53987437964233</v>
       </c>
       <c r="S46" t="n">
-        <v>34.31680937844205</v>
+        <v>34.31680937844204</v>
       </c>
       <c r="T46" t="n">
-        <v>8.413615236237749</v>
+        <v>8.413615236237746</v>
       </c>
       <c r="U46" t="n">
         <v>0.107407854079631</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>191.5387176955284</v>
+        <v>191.5387176955282</v>
       </c>
       <c r="K11" t="n">
-        <v>338.3179150664383</v>
+        <v>338.3179150664382</v>
       </c>
       <c r="L11" t="n">
-        <v>456.9877966835821</v>
+        <v>456.987796683582</v>
       </c>
       <c r="M11" t="n">
-        <v>540.4763066837885</v>
+        <v>540.4763066837884</v>
       </c>
       <c r="N11" t="n">
-        <v>553.8821908803859</v>
+        <v>553.8821908803857</v>
       </c>
       <c r="O11" t="n">
-        <v>509.5452857425502</v>
+        <v>509.54528574255</v>
       </c>
       <c r="P11" t="n">
-        <v>400.035616817313</v>
+        <v>400.0356168173129</v>
       </c>
       <c r="Q11" t="n">
-        <v>251.7507483411257</v>
+        <v>251.7507483411256</v>
       </c>
       <c r="R11" t="n">
-        <v>60.16955461039475</v>
+        <v>60.1695546103947</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>95.07122186869344</v>
+        <v>95.07122186869341</v>
       </c>
       <c r="K12" t="n">
         <v>241.4361282939365</v>
       </c>
       <c r="L12" t="n">
-        <v>363.4939732312467</v>
+        <v>371.4311151712888</v>
       </c>
       <c r="M12" t="n">
-        <v>452.9949842242029</v>
+        <v>452.9949842242028</v>
       </c>
       <c r="N12" t="n">
-        <v>479.5386003115565</v>
+        <v>479.5386003115564</v>
       </c>
       <c r="O12" t="n">
-        <v>416.2398962406528</v>
+        <v>408.3027543006109</v>
       </c>
       <c r="P12" t="n">
-        <v>314.5408633499105</v>
+        <v>314.5408633499104</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.8388065635826</v>
+        <v>159.8388065635825</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1513144690966612</v>
+        <v>0.1513144690966328</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.20766429312718</v>
+        <v>72.20766429312722</v>
       </c>
       <c r="K13" t="n">
-        <v>232.8576015773159</v>
+        <v>232.857601577316</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6963970769484</v>
+        <v>346.6963970769485</v>
       </c>
       <c r="M13" t="n">
         <v>374.6045124912715</v>
@@ -35583,7 +35583,7 @@
         <v>329.263044665975</v>
       </c>
       <c r="P13" t="n">
-        <v>261.7859385910466</v>
+        <v>261.7859385910467</v>
       </c>
       <c r="Q13" t="n">
         <v>105.0752782831374</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>191.5387176955284</v>
+        <v>191.5387176955282</v>
       </c>
       <c r="K14" t="n">
-        <v>338.3179150664383</v>
+        <v>338.3179150664382</v>
       </c>
       <c r="L14" t="n">
-        <v>456.9877966835821</v>
+        <v>456.987796683582</v>
       </c>
       <c r="M14" t="n">
-        <v>540.4763066837885</v>
+        <v>540.4763066837884</v>
       </c>
       <c r="N14" t="n">
-        <v>553.8821908803859</v>
+        <v>553.8821908803857</v>
       </c>
       <c r="O14" t="n">
-        <v>509.5452857425502</v>
+        <v>509.54528574255</v>
       </c>
       <c r="P14" t="n">
-        <v>400.035616817313</v>
+        <v>400.0356168173129</v>
       </c>
       <c r="Q14" t="n">
-        <v>251.7507483411257</v>
+        <v>251.7507483411256</v>
       </c>
       <c r="R14" t="n">
-        <v>60.16955461039475</v>
+        <v>60.1695546103947</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>95.07122186869344</v>
+        <v>95.07122186869341</v>
       </c>
       <c r="K15" t="n">
         <v>241.4361282939365</v>
       </c>
       <c r="L15" t="n">
-        <v>371.4311151712889</v>
+        <v>363.4939732312474</v>
       </c>
       <c r="M15" t="n">
-        <v>452.9949842242029</v>
+        <v>452.9949842242028</v>
       </c>
       <c r="N15" t="n">
-        <v>479.5386003115565</v>
+        <v>479.5386003115564</v>
       </c>
       <c r="O15" t="n">
-        <v>408.3027543006107</v>
+        <v>416.2398962406527</v>
       </c>
       <c r="P15" t="n">
-        <v>314.5408633499105</v>
+        <v>314.5408633499104</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.8388065635826</v>
+        <v>159.8388065635825</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1513144690966612</v>
+        <v>0.1513144690966328</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.20766429312711</v>
+        <v>72.20766429312717</v>
       </c>
       <c r="K16" t="n">
-        <v>232.8576015773158</v>
+        <v>232.8576015773159</v>
       </c>
       <c r="L16" t="n">
         <v>346.6963970769484</v>
@@ -35820,10 +35820,10 @@
         <v>329.2630446659749</v>
       </c>
       <c r="P16" t="n">
-        <v>261.7859385910465</v>
+        <v>261.7859385910466</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.0752782831373</v>
+        <v>105.0752782831374</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>191.5387176955284</v>
+        <v>191.5387176955282</v>
       </c>
       <c r="K17" t="n">
-        <v>338.3179150664383</v>
+        <v>338.3179150664382</v>
       </c>
       <c r="L17" t="n">
-        <v>456.9877966835821</v>
+        <v>456.987796683582</v>
       </c>
       <c r="M17" t="n">
-        <v>540.4763066837885</v>
+        <v>540.4763066837884</v>
       </c>
       <c r="N17" t="n">
-        <v>553.8821908803859</v>
+        <v>553.8821908803857</v>
       </c>
       <c r="O17" t="n">
-        <v>509.5452857425502</v>
+        <v>509.5452857425515</v>
       </c>
       <c r="P17" t="n">
-        <v>400.035616817313</v>
+        <v>400.0356168173129</v>
       </c>
       <c r="Q17" t="n">
-        <v>251.7507483411257</v>
+        <v>251.7507483411256</v>
       </c>
       <c r="R17" t="n">
-        <v>60.16955461039475</v>
+        <v>60.1695546103947</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>95.07122186869344</v>
+        <v>95.07122186869341</v>
       </c>
       <c r="K18" t="n">
-        <v>241.4361282939365</v>
+        <v>233.4989863538951</v>
       </c>
       <c r="L18" t="n">
-        <v>371.4311151712889</v>
+        <v>371.4311151712888</v>
       </c>
       <c r="M18" t="n">
-        <v>452.9949842242029</v>
+        <v>452.9949842242028</v>
       </c>
       <c r="N18" t="n">
-        <v>479.5386003115565</v>
+        <v>479.5386003115564</v>
       </c>
       <c r="O18" t="n">
-        <v>416.2398962406528</v>
+        <v>416.2398962406527</v>
       </c>
       <c r="P18" t="n">
-        <v>314.5408633499105</v>
+        <v>314.5408633499104</v>
       </c>
       <c r="Q18" t="n">
-        <v>151.9016646235406</v>
+        <v>159.8388065635825</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1513144690966612</v>
+        <v>0.1513144690966328</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.85930007954207</v>
+        <v>45.85930007954204</v>
       </c>
       <c r="K19" t="n">
         <v>206.5092373637308</v>
@@ -36051,16 +36051,16 @@
         <v>348.2561482776863</v>
       </c>
       <c r="N19" t="n">
-        <v>345.4649069996332</v>
+        <v>345.4649069996331</v>
       </c>
       <c r="O19" t="n">
-        <v>302.9146804523899</v>
+        <v>302.9146804523898</v>
       </c>
       <c r="P19" t="n">
         <v>235.4375743774615</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.72691406955225</v>
+        <v>78.72691406955222</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>191.5387176955284</v>
+        <v>191.5387176955282</v>
       </c>
       <c r="K20" t="n">
-        <v>338.3179150664383</v>
+        <v>338.3179150664382</v>
       </c>
       <c r="L20" t="n">
-        <v>456.9877966835821</v>
+        <v>456.987796683582</v>
       </c>
       <c r="M20" t="n">
-        <v>540.4763066837885</v>
+        <v>540.4763066837884</v>
       </c>
       <c r="N20" t="n">
-        <v>553.8821908803859</v>
+        <v>553.8821908803857</v>
       </c>
       <c r="O20" t="n">
-        <v>509.5452857425502</v>
+        <v>509.5452857425515</v>
       </c>
       <c r="P20" t="n">
-        <v>400.035616817313</v>
+        <v>400.0356168173129</v>
       </c>
       <c r="Q20" t="n">
-        <v>251.7507483411257</v>
+        <v>251.7507483411256</v>
       </c>
       <c r="R20" t="n">
-        <v>60.16955461039545</v>
+        <v>60.1695546103947</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>95.07122186869344</v>
+        <v>87.13407992865204</v>
       </c>
       <c r="K21" t="n">
         <v>241.4361282939365</v>
       </c>
       <c r="L21" t="n">
-        <v>363.4939732312467</v>
+        <v>371.4311151712888</v>
       </c>
       <c r="M21" t="n">
-        <v>452.9949842242029</v>
+        <v>452.9949842242028</v>
       </c>
       <c r="N21" t="n">
-        <v>479.5386003115565</v>
+        <v>479.5386003115564</v>
       </c>
       <c r="O21" t="n">
-        <v>416.2398962406528</v>
+        <v>416.2398962406527</v>
       </c>
       <c r="P21" t="n">
-        <v>314.5408633499105</v>
+        <v>314.5408633499104</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.8388065635826</v>
+        <v>159.8388065635825</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1513144690966612</v>
+        <v>0.1513144690966328</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.85930007954207</v>
+        <v>45.85930007954204</v>
       </c>
       <c r="K22" t="n">
         <v>206.5092373637308</v>
@@ -36288,16 +36288,16 @@
         <v>348.2561482776863</v>
       </c>
       <c r="N22" t="n">
-        <v>345.4649069996332</v>
+        <v>345.4649069996331</v>
       </c>
       <c r="O22" t="n">
-        <v>302.9146804523899</v>
+        <v>302.9146804523898</v>
       </c>
       <c r="P22" t="n">
         <v>235.4375743774615</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.72691406955225</v>
+        <v>78.72691406955222</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>191.5387176955284</v>
+        <v>191.5387176955282</v>
       </c>
       <c r="K23" t="n">
-        <v>338.3179150664383</v>
+        <v>338.3179150664382</v>
       </c>
       <c r="L23" t="n">
-        <v>456.9877966835821</v>
+        <v>456.987796683582</v>
       </c>
       <c r="M23" t="n">
-        <v>540.4763066837885</v>
+        <v>540.4763066837884</v>
       </c>
       <c r="N23" t="n">
-        <v>553.8821908803859</v>
+        <v>553.8821908803857</v>
       </c>
       <c r="O23" t="n">
-        <v>509.5452857425502</v>
+        <v>783.3394883659605</v>
       </c>
       <c r="P23" t="n">
-        <v>461.5148287808194</v>
+        <v>400.0356168173129</v>
       </c>
       <c r="Q23" t="n">
-        <v>464.0657390010304</v>
+        <v>251.7507483411256</v>
       </c>
       <c r="R23" t="n">
-        <v>125.8859744833772</v>
+        <v>125.8859744833771</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>95.07122186869344</v>
+        <v>95.07122186869341</v>
       </c>
       <c r="K24" t="n">
         <v>241.4361282939365</v>
       </c>
       <c r="L24" t="n">
-        <v>371.4311151712889</v>
+        <v>371.4311151712888</v>
       </c>
       <c r="M24" t="n">
-        <v>452.9949842242029</v>
+        <v>452.9949842242028</v>
       </c>
       <c r="N24" t="n">
-        <v>479.5386003115565</v>
+        <v>479.5386003115564</v>
       </c>
       <c r="O24" t="n">
-        <v>408.3027543006107</v>
+        <v>416.2398962406527</v>
       </c>
       <c r="P24" t="n">
-        <v>314.5408633499105</v>
+        <v>306.6037214098691</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.8388065635826</v>
+        <v>159.8388065635825</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1513144690966612</v>
+        <v>0.1513144690966328</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.85930007954207</v>
+        <v>45.85930007954204</v>
       </c>
       <c r="K25" t="n">
         <v>206.5092373637308</v>
@@ -36525,16 +36525,16 @@
         <v>348.2561482776863</v>
       </c>
       <c r="N25" t="n">
-        <v>345.4649069996332</v>
+        <v>345.4649069996331</v>
       </c>
       <c r="O25" t="n">
-        <v>302.9146804523899</v>
+        <v>302.9146804523898</v>
       </c>
       <c r="P25" t="n">
         <v>235.4375743774615</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.72691406955225</v>
+        <v>78.72691406955222</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>191.5387176955284</v>
+        <v>360.6353328676021</v>
       </c>
       <c r="K26" t="n">
         <v>338.3179150664383</v>
@@ -36601,22 +36601,22 @@
         <v>456.9877966835821</v>
       </c>
       <c r="M26" t="n">
-        <v>540.4763066837885</v>
+        <v>989.989840176621</v>
       </c>
       <c r="N26" t="n">
-        <v>610.9280198570298</v>
+        <v>553.8821908803859</v>
       </c>
       <c r="O26" t="n">
-        <v>890.3454670052955</v>
+        <v>509.5452857425502</v>
       </c>
       <c r="P26" t="n">
-        <v>400.035616817313</v>
+        <v>497.3028889246833</v>
       </c>
       <c r="Q26" t="n">
-        <v>464.0657390010304</v>
+        <v>251.7507483411257</v>
       </c>
       <c r="R26" t="n">
-        <v>125.8859744833772</v>
+        <v>60.16955461039475</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36686,13 +36686,13 @@
         <v>479.5386003115565</v>
       </c>
       <c r="O27" t="n">
-        <v>408.3027543006107</v>
+        <v>416.2398962406528</v>
       </c>
       <c r="P27" t="n">
         <v>314.5408633499105</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.8388065635826</v>
+        <v>151.9016646235406</v>
       </c>
       <c r="R27" t="n">
         <v>0.1513144690966612</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.65474313589982</v>
+        <v>92.65474313589984</v>
       </c>
       <c r="K28" t="n">
-        <v>253.3046804200885</v>
+        <v>253.3046804200886</v>
       </c>
       <c r="L28" t="n">
         <v>367.1434759197211</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>191.5387176955284</v>
+        <v>191.5387176955282</v>
       </c>
       <c r="K29" t="n">
-        <v>338.3179150664383</v>
+        <v>392.366811685978</v>
       </c>
       <c r="L29" t="n">
-        <v>456.9877966835821</v>
+        <v>456.987796683582</v>
       </c>
       <c r="M29" t="n">
-        <v>989.989840176621</v>
+        <v>989.9898401766209</v>
       </c>
       <c r="N29" t="n">
-        <v>553.8821908803859</v>
+        <v>553.8821908803857</v>
       </c>
       <c r="O29" t="n">
-        <v>509.5452857425502</v>
+        <v>509.54528574255</v>
       </c>
       <c r="P29" t="n">
-        <v>454.0845134368517</v>
+        <v>400.0356168173129</v>
       </c>
       <c r="Q29" t="n">
-        <v>464.0657390010304</v>
+        <v>464.0657390010302</v>
       </c>
       <c r="R29" t="n">
-        <v>60.16955461039475</v>
+        <v>60.1695546103947</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>87.13407992865153</v>
+        <v>95.07122186869341</v>
       </c>
       <c r="K30" t="n">
         <v>241.4361282939365</v>
       </c>
       <c r="L30" t="n">
-        <v>371.4311151712889</v>
+        <v>363.4939732312477</v>
       </c>
       <c r="M30" t="n">
-        <v>452.9949842242029</v>
+        <v>452.9949842242028</v>
       </c>
       <c r="N30" t="n">
-        <v>479.5386003115565</v>
+        <v>479.5386003115564</v>
       </c>
       <c r="O30" t="n">
-        <v>416.2398962406528</v>
+        <v>416.2398962406527</v>
       </c>
       <c r="P30" t="n">
-        <v>314.5408633499105</v>
+        <v>314.5408633499104</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.8388065635826</v>
+        <v>159.8388065635825</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1513144690966612</v>
+        <v>0.1513144690966328</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>253.3046804200885</v>
       </c>
       <c r="L31" t="n">
-        <v>367.1434759197211</v>
+        <v>367.143475919721</v>
       </c>
       <c r="M31" t="n">
         <v>395.0515913340441</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>360.6353328676021</v>
+        <v>191.5387176955282</v>
       </c>
       <c r="K32" t="n">
-        <v>338.3179150664383</v>
+        <v>662.4633276376029</v>
       </c>
       <c r="L32" t="n">
-        <v>622.968421021039</v>
+        <v>570.6883943518064</v>
       </c>
       <c r="M32" t="n">
-        <v>540.4763066837885</v>
+        <v>540.4763066837884</v>
       </c>
       <c r="N32" t="n">
-        <v>553.8821908803859</v>
+        <v>553.8821908803857</v>
       </c>
       <c r="O32" t="n">
-        <v>890.3454670052955</v>
+        <v>509.54528574255</v>
       </c>
       <c r="P32" t="n">
-        <v>400.035616817313</v>
+        <v>400.0356168173129</v>
       </c>
       <c r="Q32" t="n">
-        <v>251.7507483411257</v>
+        <v>464.0657390010302</v>
       </c>
       <c r="R32" t="n">
-        <v>60.16955461039475</v>
+        <v>125.8859744833771</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>95.07122186869344</v>
+        <v>95.07122186869341</v>
       </c>
       <c r="K33" t="n">
         <v>241.4361282939365</v>
       </c>
       <c r="L33" t="n">
-        <v>371.4311151712889</v>
+        <v>371.4311151712888</v>
       </c>
       <c r="M33" t="n">
-        <v>452.9949842242029</v>
+        <v>452.9949842242028</v>
       </c>
       <c r="N33" t="n">
-        <v>471.6014583715144</v>
+        <v>479.5386003115564</v>
       </c>
       <c r="O33" t="n">
-        <v>416.2398962406528</v>
+        <v>416.2398962406527</v>
       </c>
       <c r="P33" t="n">
-        <v>314.5408633499105</v>
+        <v>314.5408633499104</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.8388065635826</v>
+        <v>151.9016646235415</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1513144690966612</v>
+        <v>0.1513144690966328</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.65474313589982</v>
+        <v>92.65474313589986</v>
       </c>
       <c r="K34" t="n">
-        <v>253.3046804200885</v>
+        <v>253.3046804200886</v>
       </c>
       <c r="L34" t="n">
         <v>367.1434759197211</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>191.5387176955284</v>
+        <v>191.5387176955282</v>
       </c>
       <c r="K35" t="n">
-        <v>338.3179150664383</v>
+        <v>338.3179150664382</v>
       </c>
       <c r="L35" t="n">
-        <v>456.9877966835821</v>
+        <v>874.6490112340324</v>
       </c>
       <c r="M35" t="n">
-        <v>989.989840176621</v>
+        <v>540.4763066837884</v>
       </c>
       <c r="N35" t="n">
-        <v>553.8821908803859</v>
+        <v>553.8821908803857</v>
       </c>
       <c r="O35" t="n">
-        <v>509.5452857425502</v>
+        <v>529.7300814314895</v>
       </c>
       <c r="P35" t="n">
-        <v>666.3995040967566</v>
+        <v>400.0356168173129</v>
       </c>
       <c r="Q35" t="n">
-        <v>251.7507483411257</v>
+        <v>464.0657390010302</v>
       </c>
       <c r="R35" t="n">
-        <v>60.16955461039475</v>
+        <v>125.8859744833771</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>95.07122186869344</v>
+        <v>95.07122186869341</v>
       </c>
       <c r="K36" t="n">
         <v>241.4361282939365</v>
       </c>
       <c r="L36" t="n">
-        <v>371.4311151712889</v>
+        <v>363.4939732312477</v>
       </c>
       <c r="M36" t="n">
-        <v>452.9949842242029</v>
+        <v>452.9949842242028</v>
       </c>
       <c r="N36" t="n">
-        <v>479.5386003115565</v>
+        <v>479.5386003115564</v>
       </c>
       <c r="O36" t="n">
-        <v>408.3027543006107</v>
+        <v>416.2398962406527</v>
       </c>
       <c r="P36" t="n">
-        <v>314.5408633499105</v>
+        <v>314.5408633499104</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.8388065635826</v>
+        <v>159.8388065635825</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1513144690966612</v>
+        <v>0.1513144690966328</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>395.0515913340441</v>
       </c>
       <c r="N37" t="n">
-        <v>392.2603500559909</v>
+        <v>392.2603500559908</v>
       </c>
       <c r="O37" t="n">
         <v>349.7101235087476</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>191.5387176955284</v>
+        <v>360.635332867602</v>
       </c>
       <c r="K38" t="n">
-        <v>338.3179150664383</v>
+        <v>338.3179150664382</v>
       </c>
       <c r="L38" t="n">
-        <v>723.3516839630252</v>
+        <v>456.987796683582</v>
       </c>
       <c r="M38" t="n">
-        <v>989.989840176621</v>
+        <v>540.4763066837884</v>
       </c>
       <c r="N38" t="n">
-        <v>553.8821908803859</v>
+        <v>553.8821908803857</v>
       </c>
       <c r="O38" t="n">
-        <v>509.5452857425502</v>
+        <v>778.2946808098665</v>
       </c>
       <c r="P38" t="n">
-        <v>400.035616817313</v>
+        <v>400.0356168173129</v>
       </c>
       <c r="Q38" t="n">
-        <v>251.7507483411257</v>
+        <v>464.0657390010302</v>
       </c>
       <c r="R38" t="n">
-        <v>60.16955461039475</v>
+        <v>125.8859744833771</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>95.07122186869344</v>
+        <v>87.13407992865228</v>
       </c>
       <c r="K39" t="n">
         <v>241.4361282939365</v>
       </c>
       <c r="L39" t="n">
-        <v>371.4311151712889</v>
+        <v>371.4311151712888</v>
       </c>
       <c r="M39" t="n">
-        <v>452.9949842242029</v>
+        <v>452.9949842242028</v>
       </c>
       <c r="N39" t="n">
-        <v>479.5386003115565</v>
+        <v>479.5386003115564</v>
       </c>
       <c r="O39" t="n">
-        <v>416.2398962406528</v>
+        <v>416.2398962406527</v>
       </c>
       <c r="P39" t="n">
-        <v>314.5408633499105</v>
+        <v>314.5408633499104</v>
       </c>
       <c r="Q39" t="n">
-        <v>151.901664623541</v>
+        <v>159.8388065635825</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1513144690966612</v>
+        <v>0.1513144690966328</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>253.3046804200885</v>
       </c>
       <c r="L40" t="n">
-        <v>367.1434759197211</v>
+        <v>367.143475919721</v>
       </c>
       <c r="M40" t="n">
         <v>395.0515913340441</v>
@@ -37716,7 +37716,7 @@
         <v>349.7101235087476</v>
       </c>
       <c r="P40" t="n">
-        <v>282.2330174338194</v>
+        <v>282.2330174338193</v>
       </c>
       <c r="Q40" t="n">
         <v>125.52235712591</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>191.5387176955284</v>
+        <v>191.5387176955282</v>
       </c>
       <c r="K41" t="n">
-        <v>662.4633276376031</v>
+        <v>338.3179150664382</v>
       </c>
       <c r="L41" t="n">
-        <v>456.9877966835823</v>
+        <v>470.2663280216296</v>
       </c>
       <c r="M41" t="n">
-        <v>932.2083148848973</v>
+        <v>540.4763066837884</v>
       </c>
       <c r="N41" t="n">
-        <v>553.8821908803859</v>
+        <v>553.8821908803857</v>
       </c>
       <c r="O41" t="n">
-        <v>509.5452857425504</v>
+        <v>890.3454670052954</v>
       </c>
       <c r="P41" t="n">
-        <v>400.0356168173132</v>
+        <v>721.8343249887955</v>
       </c>
       <c r="Q41" t="n">
-        <v>251.7507483411258</v>
+        <v>251.7507483411256</v>
       </c>
       <c r="R41" t="n">
-        <v>60.16955461039481</v>
+        <v>60.1695546103947</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>87.13407992865038</v>
+        <v>95.07122186869341</v>
       </c>
       <c r="K42" t="n">
-        <v>241.4361282939366</v>
+        <v>241.4361282939365</v>
       </c>
       <c r="L42" t="n">
-        <v>371.431115171289</v>
+        <v>371.4311151712888</v>
       </c>
       <c r="M42" t="n">
-        <v>452.9949842242031</v>
+        <v>445.0578422841616</v>
       </c>
       <c r="N42" t="n">
-        <v>479.5386003115566</v>
+        <v>479.5386003115564</v>
       </c>
       <c r="O42" t="n">
-        <v>416.2398962406529</v>
+        <v>416.2398962406527</v>
       </c>
       <c r="P42" t="n">
-        <v>314.5408633499106</v>
+        <v>314.5408633499104</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.8388065635826</v>
+        <v>159.8388065635825</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1513144690967181</v>
+        <v>0.1513144690966328</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.65474313589985</v>
+        <v>92.65474313589982</v>
       </c>
       <c r="K43" t="n">
-        <v>253.3046804200886</v>
+        <v>253.3046804200885</v>
       </c>
       <c r="L43" t="n">
-        <v>367.1434759197211</v>
+        <v>367.143475919721</v>
       </c>
       <c r="M43" t="n">
         <v>395.0515913340441</v>
       </c>
       <c r="N43" t="n">
-        <v>392.260350055991</v>
+        <v>392.2603500559909</v>
       </c>
       <c r="O43" t="n">
         <v>349.7101235087476</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>360.6353328676022</v>
+        <v>191.5387176955282</v>
       </c>
       <c r="K44" t="n">
-        <v>662.4633276376031</v>
+        <v>338.3179150664382</v>
       </c>
       <c r="L44" t="n">
-        <v>456.9877966835823</v>
+        <v>874.6490112340324</v>
       </c>
       <c r="M44" t="n">
-        <v>540.4763066837887</v>
+        <v>540.4763066837884</v>
       </c>
       <c r="N44" t="n">
-        <v>553.8821908803859</v>
+        <v>786.3819772292286</v>
       </c>
       <c r="O44" t="n">
-        <v>666.4642588986028</v>
+        <v>509.54528574255</v>
       </c>
       <c r="P44" t="n">
-        <v>400.0356168173132</v>
+        <v>400.0356168173129</v>
       </c>
       <c r="Q44" t="n">
-        <v>251.7507483411258</v>
+        <v>251.7507483411256</v>
       </c>
       <c r="R44" t="n">
-        <v>125.8859744833773</v>
+        <v>125.8859744833771</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>95.0712218686935</v>
+        <v>95.07122186869341</v>
       </c>
       <c r="K45" t="n">
-        <v>241.4361282939366</v>
+        <v>241.4361282939365</v>
       </c>
       <c r="L45" t="n">
-        <v>371.431115171289</v>
+        <v>363.4939732312477</v>
       </c>
       <c r="M45" t="n">
-        <v>452.9949842242031</v>
+        <v>452.9949842242028</v>
       </c>
       <c r="N45" t="n">
-        <v>479.5386003115566</v>
+        <v>479.5386003115564</v>
       </c>
       <c r="O45" t="n">
-        <v>408.30275430061</v>
+        <v>416.2398962406527</v>
       </c>
       <c r="P45" t="n">
-        <v>314.5408633499106</v>
+        <v>314.5408633499104</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.8388065635826</v>
+        <v>159.8388065635825</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1513144690967181</v>
+        <v>0.1513144690966328</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.65474313589991</v>
+        <v>92.65474313589989</v>
       </c>
       <c r="K46" t="n">
-        <v>253.3046804200887</v>
+        <v>253.3046804200886</v>
       </c>
       <c r="L46" t="n">
-        <v>367.1434759197212</v>
+        <v>367.1434759197198</v>
       </c>
       <c r="M46" t="n">
-        <v>395.0515913340442</v>
+        <v>395.0515913340441</v>
       </c>
       <c r="N46" t="n">
         <v>392.260350055991</v>
       </c>
       <c r="O46" t="n">
-        <v>349.7101235087478</v>
+        <v>349.7101235087476</v>
       </c>
       <c r="P46" t="n">
-        <v>282.2330174338184</v>
+        <v>282.2330174338193</v>
       </c>
       <c r="Q46" t="n">
         <v>125.5223571259101</v>
